--- a/test.xlsx
+++ b/test.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J508"/>
+  <dimension ref="A1:J665"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18742,6 +18742,5658 @@
         <v>300</v>
       </c>
     </row>
+    <row r="509">
+      <c r="A509" t="n">
+        <v>508</v>
+      </c>
+      <c r="B509" t="inlineStr">
+        <is>
+          <t>1ec571bc-6f40-49a2-9049-7e495b4ec1a5</t>
+        </is>
+      </c>
+      <c r="C509" t="n">
+        <v>50</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1</v>
+      </c>
+      <c r="E509" t="n">
+        <v>4</v>
+      </c>
+      <c r="F509" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G509" t="n">
+        <v>999</v>
+      </c>
+      <c r="H509" s="2" t="n">
+        <v>44162.94818095878</v>
+      </c>
+      <c r="I509" t="inlineStr">
+        <is>
+          <t>[0.6,-0.1]</t>
+        </is>
+      </c>
+      <c r="J509" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="n">
+        <v>509</v>
+      </c>
+      <c r="B510" t="inlineStr">
+        <is>
+          <t>1ec571bc-6f40-49a2-9049-7e495b4ec1a5</t>
+        </is>
+      </c>
+      <c r="C510" t="n">
+        <v>50</v>
+      </c>
+      <c r="D510" t="n">
+        <v>2</v>
+      </c>
+      <c r="E510" t="n">
+        <v>2</v>
+      </c>
+      <c r="F510" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G510" t="n">
+        <v>3.784483837421249e-11</v>
+      </c>
+      <c r="H510" s="2" t="n">
+        <v>44162.94821595401</v>
+      </c>
+      <c r="I510" t="inlineStr">
+        <is>
+          <t>[1.2,1.5]</t>
+        </is>
+      </c>
+      <c r="J510" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="n">
+        <v>510</v>
+      </c>
+      <c r="B511" t="inlineStr">
+        <is>
+          <t>1ec571bc-6f40-49a2-9049-7e495b4ec1a5</t>
+        </is>
+      </c>
+      <c r="C511" t="n">
+        <v>50</v>
+      </c>
+      <c r="D511" t="n">
+        <v>3</v>
+      </c>
+      <c r="E511" t="n">
+        <v>4</v>
+      </c>
+      <c r="F511" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G511" t="n">
+        <v>999</v>
+      </c>
+      <c r="H511" s="2" t="n">
+        <v>44162.94825024714</v>
+      </c>
+      <c r="I511" t="inlineStr">
+        <is>
+          <t>[0.2,-2.0]</t>
+        </is>
+      </c>
+      <c r="J511" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="n">
+        <v>511</v>
+      </c>
+      <c r="B512" t="inlineStr">
+        <is>
+          <t>1ec571bc-6f40-49a2-9049-7e495b4ec1a5</t>
+        </is>
+      </c>
+      <c r="C512" t="n">
+        <v>50</v>
+      </c>
+      <c r="D512" t="n">
+        <v>4</v>
+      </c>
+      <c r="E512" t="n">
+        <v>2</v>
+      </c>
+      <c r="F512" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G512" t="n">
+        <v>0.9999991532420182</v>
+      </c>
+      <c r="H512" s="2" t="n">
+        <v>44162.9482894285</v>
+      </c>
+      <c r="I512" t="inlineStr">
+        <is>
+          <t>[0.9,-0.7]</t>
+        </is>
+      </c>
+      <c r="J512" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="n">
+        <v>512</v>
+      </c>
+      <c r="B513" t="inlineStr">
+        <is>
+          <t>1ec571bc-6f40-49a2-9049-7e495b4ec1a5</t>
+        </is>
+      </c>
+      <c r="C513" t="n">
+        <v>50</v>
+      </c>
+      <c r="D513" t="n">
+        <v>5</v>
+      </c>
+      <c r="E513" t="n">
+        <v>2</v>
+      </c>
+      <c r="F513" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G513" t="n">
+        <v>0.4999999999999911</v>
+      </c>
+      <c r="H513" s="2" t="n">
+        <v>44162.94832436663</v>
+      </c>
+      <c r="I513" t="inlineStr">
+        <is>
+          <t>[0.4,0.0]</t>
+        </is>
+      </c>
+      <c r="J513" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="n">
+        <v>513</v>
+      </c>
+      <c r="B514" t="inlineStr">
+        <is>
+          <t>cc9ba586-fde4-48ba-8281-f999aca53c0d</t>
+        </is>
+      </c>
+      <c r="C514" t="n">
+        <v>50</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1</v>
+      </c>
+      <c r="E514" t="n">
+        <v>4</v>
+      </c>
+      <c r="F514" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G514" t="n">
+        <v>999</v>
+      </c>
+      <c r="H514" s="2" t="n">
+        <v>44163.54848411848</v>
+      </c>
+      <c r="I514" t="inlineStr">
+        <is>
+          <t>[-0.1,0.5]</t>
+        </is>
+      </c>
+      <c r="J514" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="n">
+        <v>514</v>
+      </c>
+      <c r="B515" t="inlineStr">
+        <is>
+          <t>cc9ba586-fde4-48ba-8281-f999aca53c0d</t>
+        </is>
+      </c>
+      <c r="C515" t="n">
+        <v>50</v>
+      </c>
+      <c r="D515" t="n">
+        <v>2</v>
+      </c>
+      <c r="E515" t="n">
+        <v>2</v>
+      </c>
+      <c r="F515" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G515" t="n">
+        <v>0.9996192824491935</v>
+      </c>
+      <c r="H515" s="2" t="n">
+        <v>44163.54850341121</v>
+      </c>
+      <c r="I515" t="inlineStr">
+        <is>
+          <t>[0.5,-0.4]</t>
+        </is>
+      </c>
+      <c r="J515" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="n">
+        <v>515</v>
+      </c>
+      <c r="B516" t="inlineStr">
+        <is>
+          <t>cc9ba586-fde4-48ba-8281-f999aca53c0d</t>
+        </is>
+      </c>
+      <c r="C516" t="n">
+        <v>50</v>
+      </c>
+      <c r="D516" t="n">
+        <v>4</v>
+      </c>
+      <c r="E516" t="n">
+        <v>2</v>
+      </c>
+      <c r="F516" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G516" t="n">
+        <v>2.340100446751592e-09</v>
+      </c>
+      <c r="H516" s="2" t="n">
+        <v>44163.54854927485</v>
+      </c>
+      <c r="I516" t="inlineStr">
+        <is>
+          <t>[1.0,1.1]</t>
+        </is>
+      </c>
+      <c r="J516" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="n">
+        <v>516</v>
+      </c>
+      <c r="B517" t="inlineStr">
+        <is>
+          <t>3a48d77d-3f63-4dc9-81ef-03bfff922914</t>
+        </is>
+      </c>
+      <c r="C517" t="n">
+        <v>50</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1</v>
+      </c>
+      <c r="E517" t="n">
+        <v>2</v>
+      </c>
+      <c r="F517" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G517" t="n">
+        <v>2.061153581145447e-09</v>
+      </c>
+      <c r="H517" s="2" t="n">
+        <v>44174.94043342802</v>
+      </c>
+      <c r="I517" t="inlineStr">
+        <is>
+          <t>[-1.0,-2.0]</t>
+        </is>
+      </c>
+      <c r="J517" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="n">
+        <v>517</v>
+      </c>
+      <c r="B518" t="inlineStr">
+        <is>
+          <t>3a48d77d-3f63-4dc9-81ef-03bfff922914</t>
+        </is>
+      </c>
+      <c r="C518" t="n">
+        <v>50</v>
+      </c>
+      <c r="D518" t="n">
+        <v>2</v>
+      </c>
+      <c r="E518" t="n">
+        <v>2</v>
+      </c>
+      <c r="F518" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G518" t="n">
+        <v>4.539786871515794e-05</v>
+      </c>
+      <c r="H518" s="2" t="n">
+        <v>44174.94045383311</v>
+      </c>
+      <c r="I518" t="inlineStr">
+        <is>
+          <t>[1.6,0.5]</t>
+        </is>
+      </c>
+      <c r="J518" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="n">
+        <v>518</v>
+      </c>
+      <c r="B519" t="inlineStr">
+        <is>
+          <t>3a48d77d-3f63-4dc9-81ef-03bfff922914</t>
+        </is>
+      </c>
+      <c r="C519" t="n">
+        <v>50</v>
+      </c>
+      <c r="D519" t="n">
+        <v>3</v>
+      </c>
+      <c r="E519" t="n">
+        <v>2</v>
+      </c>
+      <c r="F519" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G519" t="n">
+        <v>5.110800671559446e-12</v>
+      </c>
+      <c r="H519" s="2" t="n">
+        <v>44174.94047745445</v>
+      </c>
+      <c r="I519" t="inlineStr">
+        <is>
+          <t>[-1.7,-1.3]</t>
+        </is>
+      </c>
+      <c r="J519" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="n">
+        <v>519</v>
+      </c>
+      <c r="B520" t="inlineStr">
+        <is>
+          <t>3a48d77d-3f63-4dc9-81ef-03bfff922914</t>
+        </is>
+      </c>
+      <c r="C520" t="n">
+        <v>50</v>
+      </c>
+      <c r="D520" t="n">
+        <v>4</v>
+      </c>
+      <c r="E520" t="n">
+        <v>4</v>
+      </c>
+      <c r="F520" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G520" t="n">
+        <v>999</v>
+      </c>
+      <c r="H520" s="2" t="n">
+        <v>44174.94049820676</v>
+      </c>
+      <c r="I520" t="inlineStr">
+        <is>
+          <t>[-1.1,1.2]</t>
+        </is>
+      </c>
+      <c r="J520" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="n">
+        <v>520</v>
+      </c>
+      <c r="B521" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C521" t="n">
+        <v>50</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1</v>
+      </c>
+      <c r="E521" t="n">
+        <v>4</v>
+      </c>
+      <c r="F521" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G521" t="n">
+        <v>999</v>
+      </c>
+      <c r="H521" s="2" t="n">
+        <v>44174.97300994538</v>
+      </c>
+      <c r="I521" t="inlineStr">
+        <is>
+          <t>[1.4,1.3]</t>
+        </is>
+      </c>
+      <c r="J521" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="n">
+        <v>521</v>
+      </c>
+      <c r="B522" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C522" t="n">
+        <v>50</v>
+      </c>
+      <c r="D522" t="n">
+        <v>2</v>
+      </c>
+      <c r="E522" t="n">
+        <v>4</v>
+      </c>
+      <c r="F522" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G522" t="n">
+        <v>999</v>
+      </c>
+      <c r="H522" s="2" t="n">
+        <v>44174.9730418031</v>
+      </c>
+      <c r="I522" t="inlineStr">
+        <is>
+          <t>[0.6,1.2]</t>
+        </is>
+      </c>
+      <c r="J522" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="n">
+        <v>522</v>
+      </c>
+      <c r="B523" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C523" t="n">
+        <v>50</v>
+      </c>
+      <c r="D523" t="n">
+        <v>3</v>
+      </c>
+      <c r="E523" t="n">
+        <v>2</v>
+      </c>
+      <c r="F523" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="G523" t="n">
+        <v>6.159404394523449e-06</v>
+      </c>
+      <c r="H523" s="2" t="n">
+        <v>44174.97306369383</v>
+      </c>
+      <c r="I523" t="inlineStr">
+        <is>
+          <t>[-0.9,-0.6]</t>
+        </is>
+      </c>
+      <c r="J523" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="n">
+        <v>523</v>
+      </c>
+      <c r="B524" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C524" t="n">
+        <v>50</v>
+      </c>
+      <c r="D524" t="n">
+        <v>4</v>
+      </c>
+      <c r="E524" t="n">
+        <v>2</v>
+      </c>
+      <c r="F524" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G524" t="n">
+        <v>0.8807970663788229</v>
+      </c>
+      <c r="H524" s="2" t="n">
+        <v>44174.97308361873</v>
+      </c>
+      <c r="I524" t="inlineStr">
+        <is>
+          <t>[-0.9,0.1]</t>
+        </is>
+      </c>
+      <c r="J524" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="n">
+        <v>524</v>
+      </c>
+      <c r="B525" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C525" t="n">
+        <v>50</v>
+      </c>
+      <c r="D525" t="n">
+        <v>5</v>
+      </c>
+      <c r="E525" t="n">
+        <v>4</v>
+      </c>
+      <c r="F525" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G525" t="n">
+        <v>999</v>
+      </c>
+      <c r="H525" s="2" t="n">
+        <v>44174.97310633444</v>
+      </c>
+      <c r="I525" t="inlineStr">
+        <is>
+          <t>[0.0,1.9]</t>
+        </is>
+      </c>
+      <c r="J525" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="n">
+        <v>525</v>
+      </c>
+      <c r="B526" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C526" t="n">
+        <v>50</v>
+      </c>
+      <c r="D526" t="n">
+        <v>6</v>
+      </c>
+      <c r="E526" t="n">
+        <v>2</v>
+      </c>
+      <c r="F526" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="G526" t="n">
+        <v>0.9999544896063532</v>
+      </c>
+      <c r="H526" s="2" t="n">
+        <v>44174.97312993399</v>
+      </c>
+      <c r="I526" t="inlineStr">
+        <is>
+          <t>[0.5,-0.8]</t>
+        </is>
+      </c>
+      <c r="J526" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="n">
+        <v>526</v>
+      </c>
+      <c r="B527" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C527" t="n">
+        <v>50</v>
+      </c>
+      <c r="D527" t="n">
+        <v>7</v>
+      </c>
+      <c r="E527" t="n">
+        <v>4</v>
+      </c>
+      <c r="F527" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G527" t="n">
+        <v>999</v>
+      </c>
+      <c r="H527" s="2" t="n">
+        <v>44174.97316542657</v>
+      </c>
+      <c r="I527" t="inlineStr">
+        <is>
+          <t>[-0.4,-0.1]</t>
+        </is>
+      </c>
+      <c r="J527" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="n">
+        <v>527</v>
+      </c>
+      <c r="B528" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C528" t="n">
+        <v>50</v>
+      </c>
+      <c r="D528" t="n">
+        <v>8</v>
+      </c>
+      <c r="E528" t="n">
+        <v>4</v>
+      </c>
+      <c r="F528" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G528" t="n">
+        <v>999</v>
+      </c>
+      <c r="H528" s="2" t="n">
+        <v>44174.97319676903</v>
+      </c>
+      <c r="I528" t="inlineStr">
+        <is>
+          <t>[-1.6,0.9]</t>
+        </is>
+      </c>
+      <c r="J528" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="n">
+        <v>528</v>
+      </c>
+      <c r="B529" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C529" t="n">
+        <v>50</v>
+      </c>
+      <c r="D529" t="n">
+        <v>9</v>
+      </c>
+      <c r="E529" t="n">
+        <v>2</v>
+      </c>
+      <c r="F529" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G529" t="n">
+        <v>0.9820137900329838</v>
+      </c>
+      <c r="H529" s="2" t="n">
+        <v>44174.97322884775</v>
+      </c>
+      <c r="I529" t="inlineStr">
+        <is>
+          <t>[0.2,-1.3]</t>
+        </is>
+      </c>
+      <c r="J529" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="n">
+        <v>529</v>
+      </c>
+      <c r="B530" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C530" t="n">
+        <v>50</v>
+      </c>
+      <c r="D530" t="n">
+        <v>10</v>
+      </c>
+      <c r="E530" t="n">
+        <v>2</v>
+      </c>
+      <c r="F530" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G530" t="n">
+        <v>1.021815965174255e-11</v>
+      </c>
+      <c r="H530" s="2" t="n">
+        <v>44174.97326134232</v>
+      </c>
+      <c r="I530" t="inlineStr">
+        <is>
+          <t>[1.3,1.3]</t>
+        </is>
+      </c>
+      <c r="J530" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="n">
+        <v>530</v>
+      </c>
+      <c r="B531" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C531" t="n">
+        <v>50</v>
+      </c>
+      <c r="D531" t="n">
+        <v>11</v>
+      </c>
+      <c r="E531" t="n">
+        <v>2</v>
+      </c>
+      <c r="F531" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G531" t="n">
+        <v>4.539786870405571e-05</v>
+      </c>
+      <c r="H531" s="2" t="n">
+        <v>44174.9732785347</v>
+      </c>
+      <c r="I531" t="inlineStr">
+        <is>
+          <t>[-1.7,-0.5]</t>
+        </is>
+      </c>
+      <c r="J531" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="n">
+        <v>531</v>
+      </c>
+      <c r="B532" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C532" t="n">
+        <v>50</v>
+      </c>
+      <c r="D532" t="n">
+        <v>12</v>
+      </c>
+      <c r="E532" t="n">
+        <v>2</v>
+      </c>
+      <c r="F532" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G532" t="n">
+        <v>2.061155246479984e-09</v>
+      </c>
+      <c r="H532" s="2" t="n">
+        <v>44174.97329951848</v>
+      </c>
+      <c r="I532" t="inlineStr">
+        <is>
+          <t>[-1.0,-1.7]</t>
+        </is>
+      </c>
+      <c r="J532" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="n">
+        <v>532</v>
+      </c>
+      <c r="B533" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C533" t="n">
+        <v>50</v>
+      </c>
+      <c r="D533" t="n">
+        <v>13</v>
+      </c>
+      <c r="E533" t="n">
+        <v>2</v>
+      </c>
+      <c r="F533" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G533" t="n">
+        <v>0.01799213311586545</v>
+      </c>
+      <c r="H533" s="2" t="n">
+        <v>44174.97579278965</v>
+      </c>
+      <c r="I533" t="inlineStr">
+        <is>
+          <t>[-0.2,-0.6]</t>
+        </is>
+      </c>
+      <c r="J533" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="n">
+        <v>533</v>
+      </c>
+      <c r="B534" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C534" t="n">
+        <v>50</v>
+      </c>
+      <c r="D534" t="n">
+        <v>14</v>
+      </c>
+      <c r="E534" t="n">
+        <v>4</v>
+      </c>
+      <c r="F534" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G534" t="n">
+        <v>999</v>
+      </c>
+      <c r="H534" s="2" t="n">
+        <v>44174.97582077288</v>
+      </c>
+      <c r="I534" t="inlineStr">
+        <is>
+          <t>[-1.3,1.1]</t>
+        </is>
+      </c>
+      <c r="J534" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="n">
+        <v>534</v>
+      </c>
+      <c r="B535" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C535" t="n">
+        <v>50</v>
+      </c>
+      <c r="D535" t="n">
+        <v>15</v>
+      </c>
+      <c r="E535" t="n">
+        <v>2</v>
+      </c>
+      <c r="F535" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G535" t="n">
+        <v>0.9996646498695319</v>
+      </c>
+      <c r="H535" s="2" t="n">
+        <v>44174.97584459266</v>
+      </c>
+      <c r="I535" t="inlineStr">
+        <is>
+          <t>[1.7,-0.4]</t>
+        </is>
+      </c>
+      <c r="J535" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="n">
+        <v>535</v>
+      </c>
+      <c r="B536" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C536" t="n">
+        <v>50</v>
+      </c>
+      <c r="D536" t="n">
+        <v>16</v>
+      </c>
+      <c r="E536" t="n">
+        <v>4</v>
+      </c>
+      <c r="F536" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="G536" t="n">
+        <v>999</v>
+      </c>
+      <c r="H536" s="2" t="n">
+        <v>44174.97586868989</v>
+      </c>
+      <c r="I536" t="inlineStr">
+        <is>
+          <t>[1.0,-0.9]</t>
+        </is>
+      </c>
+      <c r="J536" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="n">
+        <v>536</v>
+      </c>
+      <c r="B537" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C537" t="n">
+        <v>50</v>
+      </c>
+      <c r="D537" t="n">
+        <v>17</v>
+      </c>
+      <c r="E537" t="n">
+        <v>2</v>
+      </c>
+      <c r="F537" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G537" t="n">
+        <v>0.002472638311298403</v>
+      </c>
+      <c r="H537" s="2" t="n">
+        <v>44174.97596733709</v>
+      </c>
+      <c r="I537" t="inlineStr">
+        <is>
+          <t>[-0.3,-0.9]</t>
+        </is>
+      </c>
+      <c r="J537" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="n">
+        <v>537</v>
+      </c>
+      <c r="B538" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C538" t="n">
+        <v>50</v>
+      </c>
+      <c r="D538" t="n">
+        <v>18</v>
+      </c>
+      <c r="E538" t="n">
+        <v>4</v>
+      </c>
+      <c r="F538" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G538" t="n">
+        <v>999</v>
+      </c>
+      <c r="H538" s="2" t="n">
+        <v>44174.97599589934</v>
+      </c>
+      <c r="I538" t="inlineStr">
+        <is>
+          <t>[-1.0,-0.2]</t>
+        </is>
+      </c>
+      <c r="J538" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="n">
+        <v>538</v>
+      </c>
+      <c r="B539" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C539" t="n">
+        <v>50</v>
+      </c>
+      <c r="D539" t="n">
+        <v>19</v>
+      </c>
+      <c r="E539" t="n">
+        <v>4</v>
+      </c>
+      <c r="F539" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G539" t="n">
+        <v>999</v>
+      </c>
+      <c r="H539" s="2" t="n">
+        <v>44174.97603260414</v>
+      </c>
+      <c r="I539" t="inlineStr">
+        <is>
+          <t>[-1.2,1.5]</t>
+        </is>
+      </c>
+      <c r="J539" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="n">
+        <v>539</v>
+      </c>
+      <c r="B540" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C540" t="n">
+        <v>50</v>
+      </c>
+      <c r="D540" t="n">
+        <v>20</v>
+      </c>
+      <c r="E540" t="n">
+        <v>2</v>
+      </c>
+      <c r="F540" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G540" t="n">
+        <v>0.9996645374098488</v>
+      </c>
+      <c r="H540" s="2" t="n">
+        <v>44174.97605445829</v>
+      </c>
+      <c r="I540" t="inlineStr">
+        <is>
+          <t>[0.4,-0.8]</t>
+        </is>
+      </c>
+      <c r="J540" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="n">
+        <v>540</v>
+      </c>
+      <c r="B541" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C541" t="n">
+        <v>50</v>
+      </c>
+      <c r="D541" t="n">
+        <v>21</v>
+      </c>
+      <c r="E541" t="n">
+        <v>2</v>
+      </c>
+      <c r="F541" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G541" t="n">
+        <v>0.9999990559369974</v>
+      </c>
+      <c r="H541" s="2" t="n">
+        <v>44174.97756691769</v>
+      </c>
+      <c r="I541" t="inlineStr">
+        <is>
+          <t>[-0.7,0.8]</t>
+        </is>
+      </c>
+      <c r="J541" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="n">
+        <v>541</v>
+      </c>
+      <c r="B542" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C542" t="n">
+        <v>50</v>
+      </c>
+      <c r="D542" t="n">
+        <v>22</v>
+      </c>
+      <c r="E542" t="n">
+        <v>2</v>
+      </c>
+      <c r="F542" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="G542" t="n">
+        <v>0.9999999999999747</v>
+      </c>
+      <c r="H542" s="2" t="n">
+        <v>44174.9775927742</v>
+      </c>
+      <c r="I542" t="inlineStr">
+        <is>
+          <t>[1.6,-1.6]</t>
+        </is>
+      </c>
+      <c r="J542" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="n">
+        <v>542</v>
+      </c>
+      <c r="B543" t="inlineStr">
+        <is>
+          <t>b7e7d8ab-e146-425a-a876-264e58af6c70</t>
+        </is>
+      </c>
+      <c r="C543" t="n">
+        <v>50</v>
+      </c>
+      <c r="D543" t="n">
+        <v>23</v>
+      </c>
+      <c r="E543" t="n">
+        <v>2</v>
+      </c>
+      <c r="F543" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G543" t="n">
+        <v>0.4999999999999912</v>
+      </c>
+      <c r="H543" s="2" t="n">
+        <v>44174.97761478954</v>
+      </c>
+      <c r="I543" t="inlineStr">
+        <is>
+          <t>[0.0,1.9]</t>
+        </is>
+      </c>
+      <c r="J543" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" t="n">
+        <v>543</v>
+      </c>
+      <c r="B544" t="inlineStr">
+        <is>
+          <t>9961da06-39f1-408b-9238-30c1bdf27d01</t>
+        </is>
+      </c>
+      <c r="C544" t="n">
+        <v>50</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1</v>
+      </c>
+      <c r="E544" t="n">
+        <v>2</v>
+      </c>
+      <c r="F544" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="G544" t="n">
+        <v>0.002806314898105011</v>
+      </c>
+      <c r="H544" s="2" t="n">
+        <v>44174.9803776832</v>
+      </c>
+      <c r="I544" t="inlineStr">
+        <is>
+          <t>[-0.3,-0.4]</t>
+        </is>
+      </c>
+      <c r="J544" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" t="n">
+        <v>544</v>
+      </c>
+      <c r="B545" t="inlineStr">
+        <is>
+          <t>9961da06-39f1-408b-9238-30c1bdf27d01</t>
+        </is>
+      </c>
+      <c r="C545" t="n">
+        <v>50</v>
+      </c>
+      <c r="D545" t="n">
+        <v>2</v>
+      </c>
+      <c r="E545" t="n">
+        <v>4</v>
+      </c>
+      <c r="F545" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G545" t="n">
+        <v>999</v>
+      </c>
+      <c r="H545" s="2" t="n">
+        <v>44174.98043926321</v>
+      </c>
+      <c r="I545" t="inlineStr">
+        <is>
+          <t>[-0.3,-0.3]</t>
+        </is>
+      </c>
+      <c r="J545" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" t="n">
+        <v>545</v>
+      </c>
+      <c r="B546" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C546" t="n">
+        <v>50</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1</v>
+      </c>
+      <c r="E546" t="n">
+        <v>4</v>
+      </c>
+      <c r="F546" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G546" t="n">
+        <v>999</v>
+      </c>
+      <c r="H546" s="2" t="n">
+        <v>44174.98106663203</v>
+      </c>
+      <c r="I546" t="inlineStr">
+        <is>
+          <t>[-0.9,1.7]</t>
+        </is>
+      </c>
+      <c r="J546" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" t="n">
+        <v>546</v>
+      </c>
+      <c r="B547" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C547" t="n">
+        <v>50</v>
+      </c>
+      <c r="D547" t="n">
+        <v>2</v>
+      </c>
+      <c r="E547" t="n">
+        <v>2</v>
+      </c>
+      <c r="F547" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G547" t="n">
+        <v>0.9999998874597289</v>
+      </c>
+      <c r="H547" s="2" t="n">
+        <v>44174.9811588686</v>
+      </c>
+      <c r="I547" t="inlineStr">
+        <is>
+          <t>[-1.3,0.8]</t>
+        </is>
+      </c>
+      <c r="J547" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" t="n">
+        <v>547</v>
+      </c>
+      <c r="B548" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C548" t="n">
+        <v>50</v>
+      </c>
+      <c r="D548" t="n">
+        <v>3</v>
+      </c>
+      <c r="E548" t="n">
+        <v>2</v>
+      </c>
+      <c r="F548" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G548" t="n">
+        <v>0.9999998874648379</v>
+      </c>
+      <c r="H548" s="2" t="n">
+        <v>44174.98384455895</v>
+      </c>
+      <c r="I548" t="inlineStr">
+        <is>
+          <t>[-1.9,0.8]</t>
+        </is>
+      </c>
+      <c r="J548" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" t="n">
+        <v>548</v>
+      </c>
+      <c r="B549" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C549" t="n">
+        <v>50</v>
+      </c>
+      <c r="D549" t="n">
+        <v>4</v>
+      </c>
+      <c r="E549" t="n">
+        <v>2</v>
+      </c>
+      <c r="F549" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G549" t="n">
+        <v>0.8670988855829634</v>
+      </c>
+      <c r="H549" s="2" t="n">
+        <v>44174.98408031653</v>
+      </c>
+      <c r="I549" t="inlineStr">
+        <is>
+          <t>[0.1,-0.2]</t>
+        </is>
+      </c>
+      <c r="J549" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" t="n">
+        <v>549</v>
+      </c>
+      <c r="B550" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C550" t="n">
+        <v>50</v>
+      </c>
+      <c r="D550" t="n">
+        <v>5</v>
+      </c>
+      <c r="E550" t="n">
+        <v>2</v>
+      </c>
+      <c r="F550" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G550" t="n">
+        <v>8.315280279891368e-07</v>
+      </c>
+      <c r="H550" s="2" t="n">
+        <v>44174.98411582565</v>
+      </c>
+      <c r="I550" t="inlineStr">
+        <is>
+          <t>[-1.8,-0.7]</t>
+        </is>
+      </c>
+      <c r="J550" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" t="n">
+        <v>550</v>
+      </c>
+      <c r="B551" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C551" t="n">
+        <v>50</v>
+      </c>
+      <c r="D551" t="n">
+        <v>6</v>
+      </c>
+      <c r="E551" t="n">
+        <v>4</v>
+      </c>
+      <c r="F551" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G551" t="n">
+        <v>999</v>
+      </c>
+      <c r="H551" s="2" t="n">
+        <v>44174.98470769744</v>
+      </c>
+      <c r="I551" t="inlineStr">
+        <is>
+          <t>[1.2,1.9]</t>
+        </is>
+      </c>
+      <c r="J551" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" t="n">
+        <v>551</v>
+      </c>
+      <c r="B552" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C552" t="n">
+        <v>50</v>
+      </c>
+      <c r="D552" t="n">
+        <v>7</v>
+      </c>
+      <c r="E552" t="n">
+        <v>4</v>
+      </c>
+      <c r="F552" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G552" t="n">
+        <v>999</v>
+      </c>
+      <c r="H552" s="2" t="n">
+        <v>44174.98474931781</v>
+      </c>
+      <c r="I552" t="inlineStr">
+        <is>
+          <t>[1.3,0.5]</t>
+        </is>
+      </c>
+      <c r="J552" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" t="n">
+        <v>552</v>
+      </c>
+      <c r="B553" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C553" t="n">
+        <v>50</v>
+      </c>
+      <c r="D553" t="n">
+        <v>8</v>
+      </c>
+      <c r="E553" t="n">
+        <v>2</v>
+      </c>
+      <c r="F553" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G553" t="n">
+        <v>0.9999999999992959</v>
+      </c>
+      <c r="H553" s="2" t="n">
+        <v>44174.98478541733</v>
+      </c>
+      <c r="I553" t="inlineStr">
+        <is>
+          <t>[1.6,-1.4]</t>
+        </is>
+      </c>
+      <c r="J553" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" t="n">
+        <v>553</v>
+      </c>
+      <c r="B554" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C554" t="n">
+        <v>50</v>
+      </c>
+      <c r="D554" t="n">
+        <v>9</v>
+      </c>
+      <c r="E554" t="n">
+        <v>4</v>
+      </c>
+      <c r="F554" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="G554" t="n">
+        <v>999</v>
+      </c>
+      <c r="H554" s="2" t="n">
+        <v>44174.98482792926</v>
+      </c>
+      <c r="I554" t="inlineStr">
+        <is>
+          <t>[-0.5,1.0]</t>
+        </is>
+      </c>
+      <c r="J554" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" t="n">
+        <v>554</v>
+      </c>
+      <c r="B555" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C555" t="n">
+        <v>50</v>
+      </c>
+      <c r="D555" t="n">
+        <v>10</v>
+      </c>
+      <c r="E555" t="n">
+        <v>2</v>
+      </c>
+      <c r="F555" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G555" t="n">
+        <v>0.9820137900329838</v>
+      </c>
+      <c r="H555" s="2" t="n">
+        <v>44175.0046409955</v>
+      </c>
+      <c r="I555" t="inlineStr">
+        <is>
+          <t>[0.2,-1.3]</t>
+        </is>
+      </c>
+      <c r="J555" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" t="n">
+        <v>555</v>
+      </c>
+      <c r="B556" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C556" t="n">
+        <v>50</v>
+      </c>
+      <c r="D556" t="n">
+        <v>11</v>
+      </c>
+      <c r="E556" t="n">
+        <v>4</v>
+      </c>
+      <c r="F556" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G556" t="n">
+        <v>999</v>
+      </c>
+      <c r="H556" s="2" t="n">
+        <v>44175.00637188088</v>
+      </c>
+      <c r="I556" t="inlineStr">
+        <is>
+          <t>[0.9,0.7]</t>
+        </is>
+      </c>
+      <c r="J556" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" t="n">
+        <v>556</v>
+      </c>
+      <c r="B557" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C557" t="n">
+        <v>50</v>
+      </c>
+      <c r="D557" t="n">
+        <v>12</v>
+      </c>
+      <c r="E557" t="n">
+        <v>4</v>
+      </c>
+      <c r="F557" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G557" t="n">
+        <v>999</v>
+      </c>
+      <c r="H557" s="2" t="n">
+        <v>44175.00654298561</v>
+      </c>
+      <c r="I557" t="inlineStr">
+        <is>
+          <t>[-1.7,0.1]</t>
+        </is>
+      </c>
+      <c r="J557" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" t="n">
+        <v>557</v>
+      </c>
+      <c r="B558" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C558" t="n">
+        <v>50</v>
+      </c>
+      <c r="D558" t="n">
+        <v>13</v>
+      </c>
+      <c r="E558" t="n">
+        <v>2</v>
+      </c>
+      <c r="F558" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G558" t="n">
+        <v>2.84056000943167e-10</v>
+      </c>
+      <c r="H558" s="2" t="n">
+        <v>44175.00787061374</v>
+      </c>
+      <c r="I558" t="inlineStr">
+        <is>
+          <t>[-1.3,-1.1]</t>
+        </is>
+      </c>
+      <c r="J558" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" t="n">
+        <v>558</v>
+      </c>
+      <c r="B559" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C559" t="n">
+        <v>50</v>
+      </c>
+      <c r="D559" t="n">
+        <v>14</v>
+      </c>
+      <c r="E559" t="n">
+        <v>4</v>
+      </c>
+      <c r="F559" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G559" t="n">
+        <v>999</v>
+      </c>
+      <c r="H559" s="2" t="n">
+        <v>44175.00925551962</v>
+      </c>
+      <c r="I559" t="inlineStr">
+        <is>
+          <t>[-1.9,-1.3]</t>
+        </is>
+      </c>
+      <c r="J559" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" t="n">
+        <v>559</v>
+      </c>
+      <c r="B560" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C560" t="n">
+        <v>50</v>
+      </c>
+      <c r="D560" t="n">
+        <v>15</v>
+      </c>
+      <c r="E560" t="n">
+        <v>2</v>
+      </c>
+      <c r="F560" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G560" t="n">
+        <v>0.1192029222345579</v>
+      </c>
+      <c r="H560" s="2" t="n">
+        <v>44175.0103279052</v>
+      </c>
+      <c r="I560" t="inlineStr">
+        <is>
+          <t>[0.1,1.1]</t>
+        </is>
+      </c>
+      <c r="J560" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" t="n">
+        <v>560</v>
+      </c>
+      <c r="B561" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C561" t="n">
+        <v>50</v>
+      </c>
+      <c r="D561" t="n">
+        <v>16</v>
+      </c>
+      <c r="E561" t="n">
+        <v>2</v>
+      </c>
+      <c r="F561" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G561" t="n">
+        <v>1.125352556696768e-07</v>
+      </c>
+      <c r="H561" s="2" t="n">
+        <v>44175.01215947963</v>
+      </c>
+      <c r="I561" t="inlineStr">
+        <is>
+          <t>[0.8,1.5]</t>
+        </is>
+      </c>
+      <c r="J561" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" t="n">
+        <v>561</v>
+      </c>
+      <c r="B562" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C562" t="n">
+        <v>50</v>
+      </c>
+      <c r="D562" t="n">
+        <v>17</v>
+      </c>
+      <c r="E562" t="n">
+        <v>2</v>
+      </c>
+      <c r="F562" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G562" t="n">
+        <v>0.8807970779778789</v>
+      </c>
+      <c r="H562" s="2" t="n">
+        <v>44175.01252486614</v>
+      </c>
+      <c r="I562" t="inlineStr">
+        <is>
+          <t>[-0.1,1.8]</t>
+        </is>
+      </c>
+      <c r="J562" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" t="n">
+        <v>562</v>
+      </c>
+      <c r="B563" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C563" t="n">
+        <v>50</v>
+      </c>
+      <c r="D563" t="n">
+        <v>18</v>
+      </c>
+      <c r="E563" t="n">
+        <v>2</v>
+      </c>
+      <c r="F563" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G563" t="n">
+        <v>8.315657789026432e-07</v>
+      </c>
+      <c r="H563" s="2" t="n">
+        <v>44175.03987739091</v>
+      </c>
+      <c r="I563" t="inlineStr">
+        <is>
+          <t>[-0.7,-1.2]</t>
+        </is>
+      </c>
+      <c r="J563" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" t="n">
+        <v>563</v>
+      </c>
+      <c r="B564" t="inlineStr">
+        <is>
+          <t>734c432c-52fa-4aa4-8016-870722aac619</t>
+        </is>
+      </c>
+      <c r="C564" t="n">
+        <v>50</v>
+      </c>
+      <c r="D564" t="n">
+        <v>21</v>
+      </c>
+      <c r="E564" t="n">
+        <v>4</v>
+      </c>
+      <c r="F564" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G564" t="n">
+        <v>999</v>
+      </c>
+      <c r="H564" s="2" t="n">
+        <v>44175.04604519368</v>
+      </c>
+      <c r="I564" t="inlineStr">
+        <is>
+          <t>[-1.6,1.7]</t>
+        </is>
+      </c>
+      <c r="J564" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" t="n">
+        <v>564</v>
+      </c>
+      <c r="B565" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C565" t="n">
+        <v>50</v>
+      </c>
+      <c r="D565" t="n">
+        <v>12</v>
+      </c>
+      <c r="E565" t="n">
+        <v>2</v>
+      </c>
+      <c r="F565" t="n">
+        <v>1</v>
+      </c>
+      <c r="G565" t="n">
+        <v>0.8807964446909925</v>
+      </c>
+      <c r="H565" s="2" t="n">
+        <v>44175.08824001406</v>
+      </c>
+      <c r="I565" t="inlineStr">
+        <is>
+          <t>[0.7,-0.1]</t>
+        </is>
+      </c>
+      <c r="J565" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" t="n">
+        <v>565</v>
+      </c>
+      <c r="B566" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C566" t="n">
+        <v>50</v>
+      </c>
+      <c r="D566" t="n">
+        <v>14</v>
+      </c>
+      <c r="E566" t="n">
+        <v>2</v>
+      </c>
+      <c r="F566" t="n">
+        <v>0</v>
+      </c>
+      <c r="G566" t="n">
+        <v>0.1192029220260047</v>
+      </c>
+      <c r="H566" s="2" t="n">
+        <v>44175.08841235779</v>
+      </c>
+      <c r="I566" t="inlineStr">
+        <is>
+          <t>[0.1,1.3]</t>
+        </is>
+      </c>
+      <c r="J566" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" t="n">
+        <v>566</v>
+      </c>
+      <c r="B567" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C567" t="n">
+        <v>50</v>
+      </c>
+      <c r="D567" t="n">
+        <v>16</v>
+      </c>
+      <c r="E567" t="n">
+        <v>2</v>
+      </c>
+      <c r="F567" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G567" t="n">
+        <v>1.125351747344183e-07</v>
+      </c>
+      <c r="H567" s="2" t="n">
+        <v>44175.08871587398</v>
+      </c>
+      <c r="I567" t="inlineStr">
+        <is>
+          <t>[-0.8,-1.6]</t>
+        </is>
+      </c>
+      <c r="J567" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" t="n">
+        <v>567</v>
+      </c>
+      <c r="B568" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C568" t="n">
+        <v>50</v>
+      </c>
+      <c r="D568" t="n">
+        <v>17</v>
+      </c>
+      <c r="E568" t="n">
+        <v>4</v>
+      </c>
+      <c r="F568" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G568" t="n">
+        <v>999</v>
+      </c>
+      <c r="H568" s="2" t="n">
+        <v>44175.08968426565</v>
+      </c>
+      <c r="I568" t="inlineStr">
+        <is>
+          <t>[-1.0,0.5]</t>
+        </is>
+      </c>
+      <c r="J568" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" t="n">
+        <v>568</v>
+      </c>
+      <c r="B569" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C569" t="n">
+        <v>50</v>
+      </c>
+      <c r="D569" t="n">
+        <v>18</v>
+      </c>
+      <c r="E569" t="n">
+        <v>4</v>
+      </c>
+      <c r="F569" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G569" t="n">
+        <v>999</v>
+      </c>
+      <c r="H569" s="2" t="n">
+        <v>44175.08983941957</v>
+      </c>
+      <c r="I569" t="inlineStr">
+        <is>
+          <t>[-1.8,1.3]</t>
+        </is>
+      </c>
+      <c r="J569" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" t="n">
+        <v>569</v>
+      </c>
+      <c r="B570" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C570" t="n">
+        <v>50</v>
+      </c>
+      <c r="D570" t="n">
+        <v>20</v>
+      </c>
+      <c r="E570" t="n">
+        <v>2</v>
+      </c>
+      <c r="F570" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G570" t="n">
+        <v>6.146235730475347e-06</v>
+      </c>
+      <c r="H570" s="2" t="n">
+        <v>44175.09005937793</v>
+      </c>
+      <c r="I570" t="inlineStr">
+        <is>
+          <t>[1.0,0.6]</t>
+        </is>
+      </c>
+      <c r="J570" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" t="n">
+        <v>570</v>
+      </c>
+      <c r="B571" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C571" t="n">
+        <v>50</v>
+      </c>
+      <c r="D571" t="n">
+        <v>21</v>
+      </c>
+      <c r="E571" t="n">
+        <v>4</v>
+      </c>
+      <c r="F571" t="n">
+        <v>0</v>
+      </c>
+      <c r="G571" t="n">
+        <v>999</v>
+      </c>
+      <c r="H571" s="2" t="n">
+        <v>44175.09013882944</v>
+      </c>
+      <c r="I571" t="inlineStr">
+        <is>
+          <t>[1.4,-0.1]</t>
+        </is>
+      </c>
+      <c r="J571" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" t="n">
+        <v>571</v>
+      </c>
+      <c r="B572" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C572" t="n">
+        <v>50</v>
+      </c>
+      <c r="D572" t="n">
+        <v>23</v>
+      </c>
+      <c r="E572" t="n">
+        <v>2</v>
+      </c>
+      <c r="F572" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G572" t="n">
+        <v>0.9999998874647443</v>
+      </c>
+      <c r="H572" s="2" t="n">
+        <v>44175.09086808116</v>
+      </c>
+      <c r="I572" t="inlineStr">
+        <is>
+          <t>[0.8,-1.5]</t>
+        </is>
+      </c>
+      <c r="J572" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" t="n">
+        <v>572</v>
+      </c>
+      <c r="B573" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C573" t="n">
+        <v>50</v>
+      </c>
+      <c r="D573" t="n">
+        <v>30</v>
+      </c>
+      <c r="E573" t="n">
+        <v>4</v>
+      </c>
+      <c r="F573" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="G573" t="n">
+        <v>999</v>
+      </c>
+      <c r="H573" s="2" t="n">
+        <v>44175.0925881008</v>
+      </c>
+      <c r="I573" t="inlineStr">
+        <is>
+          <t>[0.3,0.1]</t>
+        </is>
+      </c>
+      <c r="J573" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" t="n">
+        <v>573</v>
+      </c>
+      <c r="B574" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C574" t="n">
+        <v>50</v>
+      </c>
+      <c r="D574" t="n">
+        <v>32</v>
+      </c>
+      <c r="E574" t="n">
+        <v>4</v>
+      </c>
+      <c r="F574" t="n">
+        <v>0</v>
+      </c>
+      <c r="G574" t="n">
+        <v>999</v>
+      </c>
+      <c r="H574" s="2" t="n">
+        <v>44175.09344715168</v>
+      </c>
+      <c r="I574" t="inlineStr">
+        <is>
+          <t>[-1.8,-1.1]</t>
+        </is>
+      </c>
+      <c r="J574" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" t="n">
+        <v>574</v>
+      </c>
+      <c r="B575" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C575" t="n">
+        <v>50</v>
+      </c>
+      <c r="D575" t="n">
+        <v>33</v>
+      </c>
+      <c r="E575" t="n">
+        <v>4</v>
+      </c>
+      <c r="F575" t="n">
+        <v>0</v>
+      </c>
+      <c r="G575" t="n">
+        <v>999</v>
+      </c>
+      <c r="H575" s="2" t="n">
+        <v>44175.0935255311</v>
+      </c>
+      <c r="I575" t="inlineStr">
+        <is>
+          <t>[-0.3,-1.5]</t>
+        </is>
+      </c>
+      <c r="J575" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" t="n">
+        <v>575</v>
+      </c>
+      <c r="B576" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C576" t="n">
+        <v>50</v>
+      </c>
+      <c r="D576" t="n">
+        <v>34</v>
+      </c>
+      <c r="E576" t="n">
+        <v>2</v>
+      </c>
+      <c r="F576" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="G576" t="n">
+        <v>0.1329011144170356</v>
+      </c>
+      <c r="H576" s="2" t="n">
+        <v>44175.09363543909</v>
+      </c>
+      <c r="I576" t="inlineStr">
+        <is>
+          <t>[0.1,0.2]</t>
+        </is>
+      </c>
+      <c r="J576" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" t="n">
+        <v>576</v>
+      </c>
+      <c r="B577" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C577" t="n">
+        <v>50</v>
+      </c>
+      <c r="D577" t="n">
+        <v>35</v>
+      </c>
+      <c r="E577" t="n">
+        <v>4</v>
+      </c>
+      <c r="F577" t="n">
+        <v>0</v>
+      </c>
+      <c r="G577" t="n">
+        <v>999</v>
+      </c>
+      <c r="H577" s="2" t="n">
+        <v>44175.093704226</v>
+      </c>
+      <c r="I577" t="inlineStr">
+        <is>
+          <t>[-0.1,-0.8]</t>
+        </is>
+      </c>
+      <c r="J577" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" t="n">
+        <v>577</v>
+      </c>
+      <c r="B578" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C578" t="n">
+        <v>50</v>
+      </c>
+      <c r="D578" t="n">
+        <v>36</v>
+      </c>
+      <c r="E578" t="n">
+        <v>4</v>
+      </c>
+      <c r="F578" t="n">
+        <v>1</v>
+      </c>
+      <c r="G578" t="n">
+        <v>999</v>
+      </c>
+      <c r="H578" s="2" t="n">
+        <v>44175.09477512943</v>
+      </c>
+      <c r="I578" t="inlineStr">
+        <is>
+          <t>[-1.5,-0.2]</t>
+        </is>
+      </c>
+      <c r="J578" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" t="n">
+        <v>578</v>
+      </c>
+      <c r="B579" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C579" t="n">
+        <v>50</v>
+      </c>
+      <c r="D579" t="n">
+        <v>37</v>
+      </c>
+      <c r="E579" t="n">
+        <v>2</v>
+      </c>
+      <c r="F579" t="n">
+        <v>0</v>
+      </c>
+      <c r="G579" t="n">
+        <v>0.9996646498318075</v>
+      </c>
+      <c r="H579" s="2" t="n">
+        <v>44175.09498548773</v>
+      </c>
+      <c r="I579" t="inlineStr">
+        <is>
+          <t>[-1.2,0.4]</t>
+        </is>
+      </c>
+      <c r="J579" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" t="n">
+        <v>579</v>
+      </c>
+      <c r="B580" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C580" t="n">
+        <v>50</v>
+      </c>
+      <c r="D580" t="n">
+        <v>38</v>
+      </c>
+      <c r="E580" t="n">
+        <v>4</v>
+      </c>
+      <c r="F580" t="n">
+        <v>0</v>
+      </c>
+      <c r="G580" t="n">
+        <v>999</v>
+      </c>
+      <c r="H580" s="2" t="n">
+        <v>44175.09510341439</v>
+      </c>
+      <c r="I580" t="inlineStr">
+        <is>
+          <t>[-0.3,-0.4]</t>
+        </is>
+      </c>
+      <c r="J580" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" t="n">
+        <v>580</v>
+      </c>
+      <c r="B581" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C581" t="n">
+        <v>50</v>
+      </c>
+      <c r="D581" t="n">
+        <v>39</v>
+      </c>
+      <c r="E581" t="n">
+        <v>2</v>
+      </c>
+      <c r="F581" t="n">
+        <v>0</v>
+      </c>
+      <c r="G581" t="n">
+        <v>0.9999546018523761</v>
+      </c>
+      <c r="H581" s="2" t="n">
+        <v>44175.09527090284</v>
+      </c>
+      <c r="I581" t="inlineStr">
+        <is>
+          <t>[-0.5,1.1]</t>
+        </is>
+      </c>
+      <c r="J581" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" t="n">
+        <v>581</v>
+      </c>
+      <c r="B582" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C582" t="n">
+        <v>50</v>
+      </c>
+      <c r="D582" t="n">
+        <v>40</v>
+      </c>
+      <c r="E582" t="n">
+        <v>4</v>
+      </c>
+      <c r="F582" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G582" t="n">
+        <v>999</v>
+      </c>
+      <c r="H582" s="2" t="n">
+        <v>44175.09689771966</v>
+      </c>
+      <c r="I582" t="inlineStr">
+        <is>
+          <t>[-2.0,1.1]</t>
+        </is>
+      </c>
+      <c r="J582" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" t="n">
+        <v>582</v>
+      </c>
+      <c r="B583" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C583" t="n">
+        <v>50</v>
+      </c>
+      <c r="D583" t="n">
+        <v>41</v>
+      </c>
+      <c r="E583" t="n">
+        <v>4</v>
+      </c>
+      <c r="F583" t="n">
+        <v>1</v>
+      </c>
+      <c r="G583" t="n">
+        <v>999</v>
+      </c>
+      <c r="H583" s="2" t="n">
+        <v>44175.09760450505</v>
+      </c>
+      <c r="I583" t="inlineStr">
+        <is>
+          <t>[-1.6,0.8]</t>
+        </is>
+      </c>
+      <c r="J583" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" t="n">
+        <v>583</v>
+      </c>
+      <c r="B584" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C584" t="n">
+        <v>50</v>
+      </c>
+      <c r="D584" t="n">
+        <v>42</v>
+      </c>
+      <c r="E584" t="n">
+        <v>4</v>
+      </c>
+      <c r="F584" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G584" t="n">
+        <v>999</v>
+      </c>
+      <c r="H584" s="2" t="n">
+        <v>44175.09767702952</v>
+      </c>
+      <c r="I584" t="inlineStr">
+        <is>
+          <t>[-1.6,-1.4]</t>
+        </is>
+      </c>
+      <c r="J584" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" t="n">
+        <v>584</v>
+      </c>
+      <c r="B585" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C585" t="n">
+        <v>50</v>
+      </c>
+      <c r="D585" t="n">
+        <v>43</v>
+      </c>
+      <c r="E585" t="n">
+        <v>2</v>
+      </c>
+      <c r="F585" t="n">
+        <v>1</v>
+      </c>
+      <c r="G585" t="n">
+        <v>0.9999999847322691</v>
+      </c>
+      <c r="H585" s="2" t="n">
+        <v>44175.09776404329</v>
+      </c>
+      <c r="I585" t="inlineStr">
+        <is>
+          <t>[-0.9,1.2]</t>
+        </is>
+      </c>
+      <c r="J585" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" t="n">
+        <v>585</v>
+      </c>
+      <c r="B586" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C586" t="n">
+        <v>50</v>
+      </c>
+      <c r="D586" t="n">
+        <v>44</v>
+      </c>
+      <c r="E586" t="n">
+        <v>2</v>
+      </c>
+      <c r="F586" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G586" t="n">
+        <v>0.4999999999999911</v>
+      </c>
+      <c r="H586" s="2" t="n">
+        <v>44175.09781880347</v>
+      </c>
+      <c r="I586" t="inlineStr">
+        <is>
+          <t>[0.0,0.6]</t>
+        </is>
+      </c>
+      <c r="J586" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" t="n">
+        <v>586</v>
+      </c>
+      <c r="B587" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C587" t="n">
+        <v>50</v>
+      </c>
+      <c r="D587" t="n">
+        <v>45</v>
+      </c>
+      <c r="E587" t="n">
+        <v>4</v>
+      </c>
+      <c r="F587" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G587" t="n">
+        <v>999</v>
+      </c>
+      <c r="H587" s="2" t="n">
+        <v>44175.09792453743</v>
+      </c>
+      <c r="I587" t="inlineStr">
+        <is>
+          <t>[-2.0,-0.5]</t>
+        </is>
+      </c>
+      <c r="J587" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" t="n">
+        <v>587</v>
+      </c>
+      <c r="B588" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C588" t="n">
+        <v>50</v>
+      </c>
+      <c r="D588" t="n">
+        <v>46</v>
+      </c>
+      <c r="E588" t="n">
+        <v>4</v>
+      </c>
+      <c r="F588" t="n">
+        <v>0</v>
+      </c>
+      <c r="G588" t="n">
+        <v>999</v>
+      </c>
+      <c r="H588" s="2" t="n">
+        <v>44175.09795490038</v>
+      </c>
+      <c r="I588" t="inlineStr">
+        <is>
+          <t>[1.6,0.5]</t>
+        </is>
+      </c>
+      <c r="J588" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" t="n">
+        <v>588</v>
+      </c>
+      <c r="B589" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C589" t="n">
+        <v>50</v>
+      </c>
+      <c r="D589" t="n">
+        <v>47</v>
+      </c>
+      <c r="E589" t="n">
+        <v>2</v>
+      </c>
+      <c r="F589" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="G589" t="n">
+        <v>0.9996646498695209</v>
+      </c>
+      <c r="H589" s="2" t="n">
+        <v>44175.09802381302</v>
+      </c>
+      <c r="I589" t="inlineStr">
+        <is>
+          <t>[0.4,-1.6]</t>
+        </is>
+      </c>
+      <c r="J589" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" t="n">
+        <v>589</v>
+      </c>
+      <c r="B590" t="inlineStr">
+        <is>
+          <t>73f04505-a7b8-4c58-accd-ee6d6e482b68</t>
+        </is>
+      </c>
+      <c r="C590" t="n">
+        <v>50</v>
+      </c>
+      <c r="D590" t="n">
+        <v>48</v>
+      </c>
+      <c r="E590" t="n">
+        <v>2</v>
+      </c>
+      <c r="F590" t="n">
+        <v>0</v>
+      </c>
+      <c r="G590" t="n">
+        <v>0.0003353501311574858</v>
+      </c>
+      <c r="H590" s="2" t="n">
+        <v>44175.10111473859</v>
+      </c>
+      <c r="I590" t="inlineStr">
+        <is>
+          <t>[1.4,0.4]</t>
+        </is>
+      </c>
+      <c r="J590" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" t="n">
+        <v>590</v>
+      </c>
+      <c r="B591" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C591" t="n">
+        <v>50</v>
+      </c>
+      <c r="D591" t="n">
+        <v>1</v>
+      </c>
+      <c r="E591" t="n">
+        <v>4</v>
+      </c>
+      <c r="F591" t="n">
+        <v>1</v>
+      </c>
+      <c r="G591" t="n">
+        <v>999</v>
+      </c>
+      <c r="H591" s="2" t="n">
+        <v>44175.21289283934</v>
+      </c>
+      <c r="I591" t="inlineStr">
+        <is>
+          <t>[0.6,-0.1]</t>
+        </is>
+      </c>
+      <c r="J591" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" t="n">
+        <v>591</v>
+      </c>
+      <c r="B592" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C592" t="n">
+        <v>50</v>
+      </c>
+      <c r="D592" t="n">
+        <v>2</v>
+      </c>
+      <c r="E592" t="n">
+        <v>4</v>
+      </c>
+      <c r="F592" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="G592" t="n">
+        <v>999</v>
+      </c>
+      <c r="H592" s="2" t="n">
+        <v>44175.21310256195</v>
+      </c>
+      <c r="I592" t="inlineStr">
+        <is>
+          <t>[0.3,-1.3]</t>
+        </is>
+      </c>
+      <c r="J592" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" t="n">
+        <v>592</v>
+      </c>
+      <c r="B593" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C593" t="n">
+        <v>50</v>
+      </c>
+      <c r="D593" t="n">
+        <v>3</v>
+      </c>
+      <c r="E593" t="n">
+        <v>4</v>
+      </c>
+      <c r="F593" t="n">
+        <v>0</v>
+      </c>
+      <c r="G593" t="n">
+        <v>999</v>
+      </c>
+      <c r="H593" s="2" t="n">
+        <v>44175.21333158897</v>
+      </c>
+      <c r="I593" t="inlineStr">
+        <is>
+          <t>[-2.0,-2.0]</t>
+        </is>
+      </c>
+      <c r="J593" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" t="n">
+        <v>593</v>
+      </c>
+      <c r="B594" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C594" t="n">
+        <v>50</v>
+      </c>
+      <c r="D594" t="n">
+        <v>4</v>
+      </c>
+      <c r="E594" t="n">
+        <v>4</v>
+      </c>
+      <c r="F594" t="n">
+        <v>0</v>
+      </c>
+      <c r="G594" t="n">
+        <v>999</v>
+      </c>
+      <c r="H594" s="2" t="n">
+        <v>44175.21378148417</v>
+      </c>
+      <c r="I594" t="inlineStr">
+        <is>
+          <t>[-0.9,0.4]</t>
+        </is>
+      </c>
+      <c r="J594" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" t="n">
+        <v>594</v>
+      </c>
+      <c r="B595" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C595" t="n">
+        <v>50</v>
+      </c>
+      <c r="D595" t="n">
+        <v>5</v>
+      </c>
+      <c r="E595" t="n">
+        <v>4</v>
+      </c>
+      <c r="F595" t="n">
+        <v>0</v>
+      </c>
+      <c r="G595" t="n">
+        <v>999</v>
+      </c>
+      <c r="H595" s="2" t="n">
+        <v>44175.21384719456</v>
+      </c>
+      <c r="I595" t="inlineStr">
+        <is>
+          <t>[-1.7,-1.2]</t>
+        </is>
+      </c>
+      <c r="J595" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" t="n">
+        <v>595</v>
+      </c>
+      <c r="B596" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C596" t="n">
+        <v>50</v>
+      </c>
+      <c r="D596" t="n">
+        <v>6</v>
+      </c>
+      <c r="E596" t="n">
+        <v>4</v>
+      </c>
+      <c r="F596" t="n">
+        <v>0</v>
+      </c>
+      <c r="G596" t="n">
+        <v>999</v>
+      </c>
+      <c r="H596" s="2" t="n">
+        <v>44175.21398398799</v>
+      </c>
+      <c r="I596" t="inlineStr">
+        <is>
+          <t>[1.1,1.5]</t>
+        </is>
+      </c>
+      <c r="J596" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" t="n">
+        <v>596</v>
+      </c>
+      <c r="B597" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C597" t="n">
+        <v>50</v>
+      </c>
+      <c r="D597" t="n">
+        <v>7</v>
+      </c>
+      <c r="E597" t="n">
+        <v>2</v>
+      </c>
+      <c r="F597" t="n">
+        <v>0</v>
+      </c>
+      <c r="G597" t="n">
+        <v>0.9820137900379079</v>
+      </c>
+      <c r="H597" s="2" t="n">
+        <v>44175.21404682429</v>
+      </c>
+      <c r="I597" t="inlineStr">
+        <is>
+          <t>[1.9,-0.2]</t>
+        </is>
+      </c>
+      <c r="J597" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" t="n">
+        <v>597</v>
+      </c>
+      <c r="B598" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C598" t="n">
+        <v>50</v>
+      </c>
+      <c r="D598" t="n">
+        <v>8</v>
+      </c>
+      <c r="E598" t="n">
+        <v>4</v>
+      </c>
+      <c r="F598" t="n">
+        <v>0</v>
+      </c>
+      <c r="G598" t="n">
+        <v>999</v>
+      </c>
+      <c r="H598" s="2" t="n">
+        <v>44175.21416009911</v>
+      </c>
+      <c r="I598" t="inlineStr">
+        <is>
+          <t>[-1.4,-0.9]</t>
+        </is>
+      </c>
+      <c r="J598" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" t="n">
+        <v>598</v>
+      </c>
+      <c r="B599" t="inlineStr">
+        <is>
+          <t>a4b408f0-ae9b-4c94-b30f-e1f683fc39a2</t>
+        </is>
+      </c>
+      <c r="C599" t="n">
+        <v>50</v>
+      </c>
+      <c r="D599" t="n">
+        <v>9</v>
+      </c>
+      <c r="E599" t="n">
+        <v>2</v>
+      </c>
+      <c r="F599" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G599" t="n">
+        <v>1.125729134354714e-07</v>
+      </c>
+      <c r="H599" s="2" t="n">
+        <v>44175.21425510619</v>
+      </c>
+      <c r="I599" t="inlineStr">
+        <is>
+          <t>[-1.2,-0.8]</t>
+        </is>
+      </c>
+      <c r="J599" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" t="n">
+        <v>599</v>
+      </c>
+      <c r="B600" t="inlineStr">
+        <is>
+          <t>0d2754b3-4b2c-4dc1-985d-4af069a17336</t>
+        </is>
+      </c>
+      <c r="C600" t="n">
+        <v>50</v>
+      </c>
+      <c r="D600" t="n">
+        <v>1</v>
+      </c>
+      <c r="E600" t="n">
+        <v>2</v>
+      </c>
+      <c r="F600" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G600" t="n">
+        <v>0.5000000000000068</v>
+      </c>
+      <c r="H600" s="2" t="n">
+        <v>44175.23005929268</v>
+      </c>
+      <c r="I600" t="inlineStr">
+        <is>
+          <t>[-0.1,0.0]</t>
+        </is>
+      </c>
+      <c r="J600" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" t="n">
+        <v>600</v>
+      </c>
+      <c r="B601" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C601" t="n">
+        <v>50</v>
+      </c>
+      <c r="D601" t="n">
+        <v>1</v>
+      </c>
+      <c r="E601" t="n">
+        <v>2</v>
+      </c>
+      <c r="F601" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G601" t="n">
+        <v>0.9999999847693291</v>
+      </c>
+      <c r="H601" s="2" t="n">
+        <v>44175.37537301007</v>
+      </c>
+      <c r="I601" t="inlineStr">
+        <is>
+          <t>[0.9,-1.4]</t>
+        </is>
+      </c>
+      <c r="J601" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" t="n">
+        <v>601</v>
+      </c>
+      <c r="B602" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C602" t="n">
+        <v>50</v>
+      </c>
+      <c r="D602" t="n">
+        <v>2</v>
+      </c>
+      <c r="E602" t="n">
+        <v>2</v>
+      </c>
+      <c r="F602" t="n">
+        <v>0</v>
+      </c>
+      <c r="G602" t="n">
+        <v>2.066262605460167e-09</v>
+      </c>
+      <c r="H602" s="2" t="n">
+        <v>44175.37542536807</v>
+      </c>
+      <c r="I602" t="inlineStr">
+        <is>
+          <t>[-1.3,-1.0]</t>
+        </is>
+      </c>
+      <c r="J602" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" t="n">
+        <v>602</v>
+      </c>
+      <c r="B603" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C603" t="n">
+        <v>50</v>
+      </c>
+      <c r="D603" t="n">
+        <v>3</v>
+      </c>
+      <c r="E603" t="n">
+        <v>2</v>
+      </c>
+      <c r="F603" t="n">
+        <v>0</v>
+      </c>
+      <c r="G603" t="n">
+        <v>6.144174603872621e-06</v>
+      </c>
+      <c r="H603" s="2" t="n">
+        <v>44175.37545269471</v>
+      </c>
+      <c r="I603" t="inlineStr">
+        <is>
+          <t>[1.7,0.6]</t>
+        </is>
+      </c>
+      <c r="J603" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" t="n">
+        <v>603</v>
+      </c>
+      <c r="B604" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C604" t="n">
+        <v>50</v>
+      </c>
+      <c r="D604" t="n">
+        <v>4</v>
+      </c>
+      <c r="E604" t="n">
+        <v>4</v>
+      </c>
+      <c r="F604" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G604" t="n">
+        <v>999</v>
+      </c>
+      <c r="H604" s="2" t="n">
+        <v>44175.37550923871</v>
+      </c>
+      <c r="I604" t="inlineStr">
+        <is>
+          <t>[1.4,1.5]</t>
+        </is>
+      </c>
+      <c r="J604" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" t="n">
+        <v>604</v>
+      </c>
+      <c r="B605" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C605" t="n">
+        <v>50</v>
+      </c>
+      <c r="D605" t="n">
+        <v>5</v>
+      </c>
+      <c r="E605" t="n">
+        <v>4</v>
+      </c>
+      <c r="F605" t="n">
+        <v>1</v>
+      </c>
+      <c r="G605" t="n">
+        <v>999</v>
+      </c>
+      <c r="H605" s="2" t="n">
+        <v>44175.37555888013</v>
+      </c>
+      <c r="I605" t="inlineStr">
+        <is>
+          <t>[0.3,0.1]</t>
+        </is>
+      </c>
+      <c r="J605" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" t="n">
+        <v>605</v>
+      </c>
+      <c r="B606" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C606" t="n">
+        <v>50</v>
+      </c>
+      <c r="D606" t="n">
+        <v>6</v>
+      </c>
+      <c r="E606" t="n">
+        <v>4</v>
+      </c>
+      <c r="F606" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G606" t="n">
+        <v>999</v>
+      </c>
+      <c r="H606" s="2" t="n">
+        <v>44175.37562820246</v>
+      </c>
+      <c r="I606" t="inlineStr">
+        <is>
+          <t>[1.8,1.6]</t>
+        </is>
+      </c>
+      <c r="J606" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" t="n">
+        <v>606</v>
+      </c>
+      <c r="B607" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C607" t="n">
+        <v>50</v>
+      </c>
+      <c r="D607" t="n">
+        <v>7</v>
+      </c>
+      <c r="E607" t="n">
+        <v>2</v>
+      </c>
+      <c r="F607" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G607" t="n">
+        <v>0.9820137900378969</v>
+      </c>
+      <c r="H607" s="2" t="n">
+        <v>44175.37578951415</v>
+      </c>
+      <c r="I607" t="inlineStr">
+        <is>
+          <t>[0.2,-1.6]</t>
+        </is>
+      </c>
+      <c r="J607" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" t="n">
+        <v>607</v>
+      </c>
+      <c r="B608" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C608" t="n">
+        <v>50</v>
+      </c>
+      <c r="D608" t="n">
+        <v>8</v>
+      </c>
+      <c r="E608" t="n">
+        <v>2</v>
+      </c>
+      <c r="F608" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G608" t="n">
+        <v>0.9999999999948906</v>
+      </c>
+      <c r="H608" s="2" t="n">
+        <v>44175.37582365957</v>
+      </c>
+      <c r="I608" t="inlineStr">
+        <is>
+          <t>[1.8,-1.3]</t>
+        </is>
+      </c>
+      <c r="J608" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" t="n">
+        <v>608</v>
+      </c>
+      <c r="B609" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C609" t="n">
+        <v>50</v>
+      </c>
+      <c r="D609" t="n">
+        <v>9</v>
+      </c>
+      <c r="E609" t="n">
+        <v>4</v>
+      </c>
+      <c r="F609" t="n">
+        <v>0</v>
+      </c>
+      <c r="G609" t="n">
+        <v>999</v>
+      </c>
+      <c r="H609" s="2" t="n">
+        <v>44175.37586351249</v>
+      </c>
+      <c r="I609" t="inlineStr">
+        <is>
+          <t>[0.2,-0.8]</t>
+        </is>
+      </c>
+      <c r="J609" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" t="n">
+        <v>609</v>
+      </c>
+      <c r="B610" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C610" t="n">
+        <v>50</v>
+      </c>
+      <c r="D610" t="n">
+        <v>10</v>
+      </c>
+      <c r="E610" t="n">
+        <v>4</v>
+      </c>
+      <c r="F610" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G610" t="n">
+        <v>999</v>
+      </c>
+      <c r="H610" s="2" t="n">
+        <v>44175.37589971061</v>
+      </c>
+      <c r="I610" t="inlineStr">
+        <is>
+          <t>[1.3,-1.3]</t>
+        </is>
+      </c>
+      <c r="J610" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" t="n">
+        <v>610</v>
+      </c>
+      <c r="B611" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C611" t="n">
+        <v>50</v>
+      </c>
+      <c r="D611" t="n">
+        <v>11</v>
+      </c>
+      <c r="E611" t="n">
+        <v>4</v>
+      </c>
+      <c r="F611" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G611" t="n">
+        <v>999</v>
+      </c>
+      <c r="H611" s="2" t="n">
+        <v>44175.37593850733</v>
+      </c>
+      <c r="I611" t="inlineStr">
+        <is>
+          <t>[-0.2,1.7]</t>
+        </is>
+      </c>
+      <c r="J611" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" t="n">
+        <v>611</v>
+      </c>
+      <c r="B612" t="inlineStr">
+        <is>
+          <t>724a0d6a-6b40-4ab1-84dc-0888e3e48f92</t>
+        </is>
+      </c>
+      <c r="C612" t="n">
+        <v>50</v>
+      </c>
+      <c r="D612" t="n">
+        <v>12</v>
+      </c>
+      <c r="E612" t="n">
+        <v>4</v>
+      </c>
+      <c r="F612" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G612" t="n">
+        <v>999</v>
+      </c>
+      <c r="H612" s="2" t="n">
+        <v>44175.37597407007</v>
+      </c>
+      <c r="I612" t="inlineStr">
+        <is>
+          <t>[1.8,-0.7]</t>
+        </is>
+      </c>
+      <c r="J612" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" t="n">
+        <v>612</v>
+      </c>
+      <c r="B613" t="inlineStr">
+        <is>
+          <t>24faa067-cf58-46b9-a1c2-2b323f7110cc</t>
+        </is>
+      </c>
+      <c r="C613" t="n">
+        <v>50</v>
+      </c>
+      <c r="D613" t="n">
+        <v>1</v>
+      </c>
+      <c r="E613" t="n">
+        <v>2</v>
+      </c>
+      <c r="F613" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="G613" t="n">
+        <v>0.0003353653502311538</v>
+      </c>
+      <c r="H613" s="2" t="n">
+        <v>44175.37838110831</v>
+      </c>
+      <c r="I613" t="inlineStr">
+        <is>
+          <t>[-0.9,-0.4]</t>
+        </is>
+      </c>
+      <c r="J613" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" t="n">
+        <v>613</v>
+      </c>
+      <c r="B614" t="inlineStr">
+        <is>
+          <t>24faa067-cf58-46b9-a1c2-2b323f7110cc</t>
+        </is>
+      </c>
+      <c r="C614" t="n">
+        <v>50</v>
+      </c>
+      <c r="D614" t="n">
+        <v>2</v>
+      </c>
+      <c r="E614" t="n">
+        <v>4</v>
+      </c>
+      <c r="F614" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="G614" t="n">
+        <v>999</v>
+      </c>
+      <c r="H614" s="2" t="n">
+        <v>44175.37844005461</v>
+      </c>
+      <c r="I614" t="inlineStr">
+        <is>
+          <t>[-1.8,1.3]</t>
+        </is>
+      </c>
+      <c r="J614" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" t="n">
+        <v>614</v>
+      </c>
+      <c r="B615" t="inlineStr">
+        <is>
+          <t>24faa067-cf58-46b9-a1c2-2b323f7110cc</t>
+        </is>
+      </c>
+      <c r="C615" t="n">
+        <v>50</v>
+      </c>
+      <c r="D615" t="n">
+        <v>3</v>
+      </c>
+      <c r="E615" t="n">
+        <v>2</v>
+      </c>
+      <c r="F615" t="n">
+        <v>1</v>
+      </c>
+      <c r="G615" t="n">
+        <v>0.999663818899212</v>
+      </c>
+      <c r="H615" s="2" t="n">
+        <v>44175.37847745022</v>
+      </c>
+      <c r="I615" t="inlineStr">
+        <is>
+          <t>[0.4,-0.7]</t>
+        </is>
+      </c>
+      <c r="J615" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" t="n">
+        <v>615</v>
+      </c>
+      <c r="B616" t="inlineStr">
+        <is>
+          <t>24faa067-cf58-46b9-a1c2-2b323f7110cc</t>
+        </is>
+      </c>
+      <c r="C616" t="n">
+        <v>50</v>
+      </c>
+      <c r="D616" t="n">
+        <v>4</v>
+      </c>
+      <c r="E616" t="n">
+        <v>4</v>
+      </c>
+      <c r="F616" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G616" t="n">
+        <v>999</v>
+      </c>
+      <c r="H616" s="2" t="n">
+        <v>44175.3785209494</v>
+      </c>
+      <c r="I616" t="inlineStr">
+        <is>
+          <t>[1.6,-0.2]</t>
+        </is>
+      </c>
+      <c r="J616" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" t="n">
+        <v>616</v>
+      </c>
+      <c r="B617" t="inlineStr">
+        <is>
+          <t>0d2754b3-4b2c-4dc1-985d-4af069a17336</t>
+        </is>
+      </c>
+      <c r="C617" t="n">
+        <v>50</v>
+      </c>
+      <c r="D617" t="n">
+        <v>2</v>
+      </c>
+      <c r="E617" t="n">
+        <v>4</v>
+      </c>
+      <c r="F617" t="n">
+        <v>0</v>
+      </c>
+      <c r="G617" t="n">
+        <v>999</v>
+      </c>
+      <c r="H617" s="2" t="n">
+        <v>44175.50632605379</v>
+      </c>
+      <c r="I617" t="inlineStr">
+        <is>
+          <t>[-1.2,1.3]</t>
+        </is>
+      </c>
+      <c r="J617" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" t="n">
+        <v>617</v>
+      </c>
+      <c r="B618" t="inlineStr">
+        <is>
+          <t>0d2754b3-4b2c-4dc1-985d-4af069a17336</t>
+        </is>
+      </c>
+      <c r="C618" t="n">
+        <v>50</v>
+      </c>
+      <c r="D618" t="n">
+        <v>3</v>
+      </c>
+      <c r="E618" t="n">
+        <v>2</v>
+      </c>
+      <c r="F618" t="n">
+        <v>0</v>
+      </c>
+      <c r="G618" t="n">
+        <v>6.144453545520179e-06</v>
+      </c>
+      <c r="H618" s="2" t="n">
+        <v>44175.5063534197</v>
+      </c>
+      <c r="I618" t="inlineStr">
+        <is>
+          <t>[-1.1,-0.6]</t>
+        </is>
+      </c>
+      <c r="J618" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" t="n">
+        <v>618</v>
+      </c>
+      <c r="B619" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C619" t="n">
+        <v>50</v>
+      </c>
+      <c r="D619" t="n">
+        <v>1</v>
+      </c>
+      <c r="E619" t="n">
+        <v>4</v>
+      </c>
+      <c r="F619" t="n">
+        <v>0</v>
+      </c>
+      <c r="G619" t="n">
+        <v>999</v>
+      </c>
+      <c r="H619" s="2" t="n">
+        <v>44175.50885502187</v>
+      </c>
+      <c r="I619" t="inlineStr">
+        <is>
+          <t>[-0.5,-0.3]</t>
+        </is>
+      </c>
+      <c r="J619" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" t="n">
+        <v>619</v>
+      </c>
+      <c r="B620" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C620" t="n">
+        <v>50</v>
+      </c>
+      <c r="D620" t="n">
+        <v>2</v>
+      </c>
+      <c r="E620" t="n">
+        <v>4</v>
+      </c>
+      <c r="F620" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="G620" t="n">
+        <v>999</v>
+      </c>
+      <c r="H620" s="2" t="n">
+        <v>44175.50905221848</v>
+      </c>
+      <c r="I620" t="inlineStr">
+        <is>
+          <t>[-1.7,0.7]</t>
+        </is>
+      </c>
+      <c r="J620" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" t="n">
+        <v>620</v>
+      </c>
+      <c r="B621" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C621" t="n">
+        <v>50</v>
+      </c>
+      <c r="D621" t="n">
+        <v>3</v>
+      </c>
+      <c r="E621" t="n">
+        <v>2</v>
+      </c>
+      <c r="F621" t="n">
+        <v>0</v>
+      </c>
+      <c r="G621" t="n">
+        <v>0.01798621023100444</v>
+      </c>
+      <c r="H621" s="2" t="n">
+        <v>44175.50909713643</v>
+      </c>
+      <c r="I621" t="inlineStr">
+        <is>
+          <t>[-1.1,-0.2]</t>
+        </is>
+      </c>
+      <c r="J621" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" t="n">
+        <v>621</v>
+      </c>
+      <c r="B622" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C622" t="n">
+        <v>50</v>
+      </c>
+      <c r="D622" t="n">
+        <v>4</v>
+      </c>
+      <c r="E622" t="n">
+        <v>2</v>
+      </c>
+      <c r="F622" t="n">
+        <v>0</v>
+      </c>
+      <c r="G622" t="n">
+        <v>8.315331367914069e-07</v>
+      </c>
+      <c r="H622" s="2" t="n">
+        <v>44175.50912470487</v>
+      </c>
+      <c r="I622" t="inlineStr">
+        <is>
+          <t>[0.7,1.3]</t>
+        </is>
+      </c>
+      <c r="J622" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" t="n">
+        <v>622</v>
+      </c>
+      <c r="B623" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C623" t="n">
+        <v>50</v>
+      </c>
+      <c r="D623" t="n">
+        <v>5</v>
+      </c>
+      <c r="E623" t="n">
+        <v>4</v>
+      </c>
+      <c r="F623" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="G623" t="n">
+        <v>999</v>
+      </c>
+      <c r="H623" s="2" t="n">
+        <v>44175.50918203439</v>
+      </c>
+      <c r="I623" t="inlineStr">
+        <is>
+          <t>[0.0,1.9]</t>
+        </is>
+      </c>
+      <c r="J623" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" t="n">
+        <v>623</v>
+      </c>
+      <c r="B624" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C624" t="n">
+        <v>50</v>
+      </c>
+      <c r="D624" t="n">
+        <v>6</v>
+      </c>
+      <c r="E624" t="n">
+        <v>4</v>
+      </c>
+      <c r="F624" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="G624" t="n">
+        <v>999</v>
+      </c>
+      <c r="H624" s="2" t="n">
+        <v>44175.5092299966</v>
+      </c>
+      <c r="I624" t="inlineStr">
+        <is>
+          <t>[1.9,0.2]</t>
+        </is>
+      </c>
+      <c r="J624" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" t="n">
+        <v>624</v>
+      </c>
+      <c r="B625" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C625" t="n">
+        <v>50</v>
+      </c>
+      <c r="D625" t="n">
+        <v>7</v>
+      </c>
+      <c r="E625" t="n">
+        <v>2</v>
+      </c>
+      <c r="F625" t="n">
+        <v>0</v>
+      </c>
+      <c r="G625" t="n">
+        <v>1.550892636537071e-08</v>
+      </c>
+      <c r="H625" s="2" t="n">
+        <v>44175.50925326045</v>
+      </c>
+      <c r="I625" t="inlineStr">
+        <is>
+          <t>[-0.9,-1.1]</t>
+        </is>
+      </c>
+      <c r="J625" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" t="n">
+        <v>625</v>
+      </c>
+      <c r="B626" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C626" t="n">
+        <v>50</v>
+      </c>
+      <c r="D626" t="n">
+        <v>8</v>
+      </c>
+      <c r="E626" t="n">
+        <v>2</v>
+      </c>
+      <c r="F626" t="n">
+        <v>1</v>
+      </c>
+      <c r="G626" t="n">
+        <v>0.9999999997210531</v>
+      </c>
+      <c r="H626" s="2" t="n">
+        <v>44175.50929147905</v>
+      </c>
+      <c r="I626" t="inlineStr">
+        <is>
+          <t>[1.1,-2.0]</t>
+        </is>
+      </c>
+      <c r="J626" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" t="n">
+        <v>626</v>
+      </c>
+      <c r="B627" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C627" t="n">
+        <v>50</v>
+      </c>
+      <c r="D627" t="n">
+        <v>9</v>
+      </c>
+      <c r="E627" t="n">
+        <v>4</v>
+      </c>
+      <c r="F627" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="G627" t="n">
+        <v>999</v>
+      </c>
+      <c r="H627" s="2" t="n">
+        <v>44175.50936057283</v>
+      </c>
+      <c r="I627" t="inlineStr">
+        <is>
+          <t>[1.5,-1.2]</t>
+        </is>
+      </c>
+      <c r="J627" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" t="n">
+        <v>627</v>
+      </c>
+      <c r="B628" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C628" t="n">
+        <v>50</v>
+      </c>
+      <c r="D628" t="n">
+        <v>10</v>
+      </c>
+      <c r="E628" t="n">
+        <v>4</v>
+      </c>
+      <c r="F628" t="n">
+        <v>0</v>
+      </c>
+      <c r="G628" t="n">
+        <v>999</v>
+      </c>
+      <c r="H628" s="2" t="n">
+        <v>44175.50938881398</v>
+      </c>
+      <c r="I628" t="inlineStr">
+        <is>
+          <t>[1.3,1.9]</t>
+        </is>
+      </c>
+      <c r="J628" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" t="n">
+        <v>628</v>
+      </c>
+      <c r="B629" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C629" t="n">
+        <v>50</v>
+      </c>
+      <c r="D629" t="n">
+        <v>11</v>
+      </c>
+      <c r="E629" t="n">
+        <v>4</v>
+      </c>
+      <c r="F629" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G629" t="n">
+        <v>999</v>
+      </c>
+      <c r="H629" s="2" t="n">
+        <v>44175.50944484249</v>
+      </c>
+      <c r="I629" t="inlineStr">
+        <is>
+          <t>[1.0,-1.8]</t>
+        </is>
+      </c>
+      <c r="J629" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" t="n">
+        <v>629</v>
+      </c>
+      <c r="B630" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C630" t="n">
+        <v>50</v>
+      </c>
+      <c r="D630" t="n">
+        <v>12</v>
+      </c>
+      <c r="E630" t="n">
+        <v>4</v>
+      </c>
+      <c r="F630" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G630" t="n">
+        <v>999</v>
+      </c>
+      <c r="H630" s="2" t="n">
+        <v>44175.50953551212</v>
+      </c>
+      <c r="I630" t="inlineStr">
+        <is>
+          <t>[1.7,0.9]</t>
+        </is>
+      </c>
+      <c r="J630" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" t="n">
+        <v>630</v>
+      </c>
+      <c r="B631" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C631" t="n">
+        <v>50</v>
+      </c>
+      <c r="D631" t="n">
+        <v>13</v>
+      </c>
+      <c r="E631" t="n">
+        <v>2</v>
+      </c>
+      <c r="F631" t="n">
+        <v>0</v>
+      </c>
+      <c r="G631" t="n">
+        <v>4.539790645030628e-05</v>
+      </c>
+      <c r="H631" s="2" t="n">
+        <v>44175.50957057962</v>
+      </c>
+      <c r="I631" t="inlineStr">
+        <is>
+          <t>[0.5,1.2]</t>
+        </is>
+      </c>
+      <c r="J631" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" t="n">
+        <v>631</v>
+      </c>
+      <c r="B632" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C632" t="n">
+        <v>50</v>
+      </c>
+      <c r="D632" t="n">
+        <v>14</v>
+      </c>
+      <c r="E632" t="n">
+        <v>4</v>
+      </c>
+      <c r="F632" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="G632" t="n">
+        <v>999</v>
+      </c>
+      <c r="H632" s="2" t="n">
+        <v>44175.50963179352</v>
+      </c>
+      <c r="I632" t="inlineStr">
+        <is>
+          <t>[1.3,-1.2]</t>
+        </is>
+      </c>
+      <c r="J632" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" t="n">
+        <v>632</v>
+      </c>
+      <c r="B633" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C633" t="n">
+        <v>50</v>
+      </c>
+      <c r="D633" t="n">
+        <v>15</v>
+      </c>
+      <c r="E633" t="n">
+        <v>4</v>
+      </c>
+      <c r="F633" t="n">
+        <v>0</v>
+      </c>
+      <c r="G633" t="n">
+        <v>999</v>
+      </c>
+      <c r="H633" s="2" t="n">
+        <v>44175.50966589629</v>
+      </c>
+      <c r="I633" t="inlineStr">
+        <is>
+          <t>[0.1,-1.0]</t>
+        </is>
+      </c>
+      <c r="J633" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" t="n">
+        <v>633</v>
+      </c>
+      <c r="B634" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C634" t="n">
+        <v>50</v>
+      </c>
+      <c r="D634" t="n">
+        <v>16</v>
+      </c>
+      <c r="E634" t="n">
+        <v>4</v>
+      </c>
+      <c r="F634" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G634" t="n">
+        <v>999</v>
+      </c>
+      <c r="H634" s="2" t="n">
+        <v>44175.509816938</v>
+      </c>
+      <c r="I634" t="inlineStr">
+        <is>
+          <t>[-1.4,-0.8]</t>
+        </is>
+      </c>
+      <c r="J634" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" t="n">
+        <v>634</v>
+      </c>
+      <c r="B635" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C635" t="n">
+        <v>50</v>
+      </c>
+      <c r="D635" t="n">
+        <v>17</v>
+      </c>
+      <c r="E635" t="n">
+        <v>2</v>
+      </c>
+      <c r="F635" t="n">
+        <v>0</v>
+      </c>
+      <c r="G635" t="n">
+        <v>0.0183094967368439</v>
+      </c>
+      <c r="H635" s="2" t="n">
+        <v>44175.50984453057</v>
+      </c>
+      <c r="I635" t="inlineStr">
+        <is>
+          <t>[-0.2,-0.4]</t>
+        </is>
+      </c>
+      <c r="J635" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" t="n">
+        <v>635</v>
+      </c>
+      <c r="B636" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C636" t="n">
+        <v>50</v>
+      </c>
+      <c r="D636" t="n">
+        <v>18</v>
+      </c>
+      <c r="E636" t="n">
+        <v>4</v>
+      </c>
+      <c r="F636" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G636" t="n">
+        <v>999</v>
+      </c>
+      <c r="H636" s="2" t="n">
+        <v>44175.50989021734</v>
+      </c>
+      <c r="I636" t="inlineStr">
+        <is>
+          <t>[-1.3,-0.1]</t>
+        </is>
+      </c>
+      <c r="J636" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" t="n">
+        <v>636</v>
+      </c>
+      <c r="B637" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C637" t="n">
+        <v>50</v>
+      </c>
+      <c r="D637" t="n">
+        <v>19</v>
+      </c>
+      <c r="E637" t="n">
+        <v>2</v>
+      </c>
+      <c r="F637" t="n">
+        <v>0</v>
+      </c>
+      <c r="G637" t="n">
+        <v>0.01798620996209221</v>
+      </c>
+      <c r="H637" s="2" t="n">
+        <v>44175.50991876754</v>
+      </c>
+      <c r="I637" t="inlineStr">
+        <is>
+          <t>[-0.2,-1.9]</t>
+        </is>
+      </c>
+      <c r="J637" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" t="n">
+        <v>637</v>
+      </c>
+      <c r="B638" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C638" t="n">
+        <v>50</v>
+      </c>
+      <c r="D638" t="n">
+        <v>20</v>
+      </c>
+      <c r="E638" t="n">
+        <v>2</v>
+      </c>
+      <c r="F638" t="n">
+        <v>1</v>
+      </c>
+      <c r="G638" t="n">
+        <v>0.9999999847700203</v>
+      </c>
+      <c r="H638" s="2" t="n">
+        <v>44175.50995472094</v>
+      </c>
+      <c r="I638" t="inlineStr">
+        <is>
+          <t>[1.8,-0.9]</t>
+        </is>
+      </c>
+      <c r="J638" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" t="n">
+        <v>638</v>
+      </c>
+      <c r="B639" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C639" t="n">
+        <v>50</v>
+      </c>
+      <c r="D639" t="n">
+        <v>21</v>
+      </c>
+      <c r="E639" t="n">
+        <v>4</v>
+      </c>
+      <c r="F639" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G639" t="n">
+        <v>999</v>
+      </c>
+      <c r="H639" s="2" t="n">
+        <v>44175.51126817657</v>
+      </c>
+      <c r="I639" t="inlineStr">
+        <is>
+          <t>[-0.5,-1.5]</t>
+        </is>
+      </c>
+      <c r="J639" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" t="n">
+        <v>639</v>
+      </c>
+      <c r="B640" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C640" t="n">
+        <v>50</v>
+      </c>
+      <c r="D640" t="n">
+        <v>22</v>
+      </c>
+      <c r="E640" t="n">
+        <v>2</v>
+      </c>
+      <c r="F640" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G640" t="n">
+        <v>0.9974822034783055</v>
+      </c>
+      <c r="H640" s="2" t="n">
+        <v>44175.5113343342</v>
+      </c>
+      <c r="I640" t="inlineStr">
+        <is>
+          <t>[0.5,-0.3]</t>
+        </is>
+      </c>
+      <c r="J640" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" t="n">
+        <v>640</v>
+      </c>
+      <c r="B641" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C641" t="n">
+        <v>50</v>
+      </c>
+      <c r="D641" t="n">
+        <v>23</v>
+      </c>
+      <c r="E641" t="n">
+        <v>4</v>
+      </c>
+      <c r="F641" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G641" t="n">
+        <v>999</v>
+      </c>
+      <c r="H641" s="2" t="n">
+        <v>44175.51139662111</v>
+      </c>
+      <c r="I641" t="inlineStr">
+        <is>
+          <t>[-1.9,-1.1]</t>
+        </is>
+      </c>
+      <c r="J641" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" t="n">
+        <v>641</v>
+      </c>
+      <c r="B642" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C642" t="n">
+        <v>50</v>
+      </c>
+      <c r="D642" t="n">
+        <v>24</v>
+      </c>
+      <c r="E642" t="n">
+        <v>2</v>
+      </c>
+      <c r="F642" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G642" t="n">
+        <v>0.9820137753557876</v>
+      </c>
+      <c r="H642" s="2" t="n">
+        <v>44175.51145720531</v>
+      </c>
+      <c r="I642" t="inlineStr">
+        <is>
+          <t>[0.9,-0.2]</t>
+        </is>
+      </c>
+      <c r="J642" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="643">
+      <c r="A643" t="n">
+        <v>642</v>
+      </c>
+      <c r="B643" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C643" t="n">
+        <v>50</v>
+      </c>
+      <c r="D643" t="n">
+        <v>25</v>
+      </c>
+      <c r="E643" t="n">
+        <v>4</v>
+      </c>
+      <c r="F643" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G643" t="n">
+        <v>999</v>
+      </c>
+      <c r="H643" s="2" t="n">
+        <v>44175.51153618117</v>
+      </c>
+      <c r="I643" t="inlineStr">
+        <is>
+          <t>[-2.0,-0.9]</t>
+        </is>
+      </c>
+      <c r="J643" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="644">
+      <c r="A644" t="n">
+        <v>643</v>
+      </c>
+      <c r="B644" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C644" t="n">
+        <v>50</v>
+      </c>
+      <c r="D644" t="n">
+        <v>26</v>
+      </c>
+      <c r="E644" t="n">
+        <v>2</v>
+      </c>
+      <c r="F644" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G644" t="n">
+        <v>0.9999991684342211</v>
+      </c>
+      <c r="H644" s="2" t="n">
+        <v>44175.51157597507</v>
+      </c>
+      <c r="I644" t="inlineStr">
+        <is>
+          <t>[-1.2,0.7]</t>
+        </is>
+      </c>
+      <c r="J644" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="645">
+      <c r="A645" t="n">
+        <v>644</v>
+      </c>
+      <c r="B645" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C645" t="n">
+        <v>50</v>
+      </c>
+      <c r="D645" t="n">
+        <v>27</v>
+      </c>
+      <c r="E645" t="n">
+        <v>4</v>
+      </c>
+      <c r="F645" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G645" t="n">
+        <v>999</v>
+      </c>
+      <c r="H645" s="2" t="n">
+        <v>44175.51167902487</v>
+      </c>
+      <c r="I645" t="inlineStr">
+        <is>
+          <t>[1.9,-0.3]</t>
+        </is>
+      </c>
+      <c r="J645" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="646">
+      <c r="A646" t="n">
+        <v>645</v>
+      </c>
+      <c r="B646" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C646" t="n">
+        <v>50</v>
+      </c>
+      <c r="D646" t="n">
+        <v>28</v>
+      </c>
+      <c r="E646" t="n">
+        <v>4</v>
+      </c>
+      <c r="F646" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G646" t="n">
+        <v>999</v>
+      </c>
+      <c r="H646" s="2" t="n">
+        <v>44175.51173128096</v>
+      </c>
+      <c r="I646" t="inlineStr">
+        <is>
+          <t>[-0.7,1.2]</t>
+        </is>
+      </c>
+      <c r="J646" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="647">
+      <c r="A647" t="n">
+        <v>646</v>
+      </c>
+      <c r="B647" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C647" t="n">
+        <v>50</v>
+      </c>
+      <c r="D647" t="n">
+        <v>29</v>
+      </c>
+      <c r="E647" t="n">
+        <v>4</v>
+      </c>
+      <c r="F647" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G647" t="n">
+        <v>999</v>
+      </c>
+      <c r="H647" s="2" t="n">
+        <v>44175.51177873579</v>
+      </c>
+      <c r="I647" t="inlineStr">
+        <is>
+          <t>[-1.9,-0.4]</t>
+        </is>
+      </c>
+      <c r="J647" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="648">
+      <c r="A648" t="n">
+        <v>647</v>
+      </c>
+      <c r="B648" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C648" t="n">
+        <v>50</v>
+      </c>
+      <c r="D648" t="n">
+        <v>30</v>
+      </c>
+      <c r="E648" t="n">
+        <v>4</v>
+      </c>
+      <c r="F648" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G648" t="n">
+        <v>999</v>
+      </c>
+      <c r="H648" s="2" t="n">
+        <v>44175.51182948073</v>
+      </c>
+      <c r="I648" t="inlineStr">
+        <is>
+          <t>[1.4,-1.0]</t>
+        </is>
+      </c>
+      <c r="J648" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="649">
+      <c r="A649" t="n">
+        <v>648</v>
+      </c>
+      <c r="B649" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C649" t="n">
+        <v>50</v>
+      </c>
+      <c r="D649" t="n">
+        <v>31</v>
+      </c>
+      <c r="E649" t="n">
+        <v>2</v>
+      </c>
+      <c r="F649" t="n">
+        <v>0</v>
+      </c>
+      <c r="G649" t="n">
+        <v>1.125402712132129e-07</v>
+      </c>
+      <c r="H649" s="2" t="n">
+        <v>44175.51187047538</v>
+      </c>
+      <c r="I649" t="inlineStr">
+        <is>
+          <t>[-0.8,-1.3]</t>
+        </is>
+      </c>
+      <c r="J649" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="650">
+      <c r="A650" t="n">
+        <v>649</v>
+      </c>
+      <c r="B650" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C650" t="n">
+        <v>50</v>
+      </c>
+      <c r="D650" t="n">
+        <v>32</v>
+      </c>
+      <c r="E650" t="n">
+        <v>4</v>
+      </c>
+      <c r="F650" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="G650" t="n">
+        <v>999</v>
+      </c>
+      <c r="H650" s="2" t="n">
+        <v>44175.51191220976</v>
+      </c>
+      <c r="I650" t="inlineStr">
+        <is>
+          <t>[1.0,-1.1]</t>
+        </is>
+      </c>
+      <c r="J650" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="651">
+      <c r="A651" t="n">
+        <v>650</v>
+      </c>
+      <c r="B651" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C651" t="n">
+        <v>50</v>
+      </c>
+      <c r="D651" t="n">
+        <v>33</v>
+      </c>
+      <c r="E651" t="n">
+        <v>4</v>
+      </c>
+      <c r="F651" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="G651" t="n">
+        <v>999</v>
+      </c>
+      <c r="H651" s="2" t="n">
+        <v>44175.51196099696</v>
+      </c>
+      <c r="I651" t="inlineStr">
+        <is>
+          <t>[-0.4,-1.9]</t>
+        </is>
+      </c>
+      <c r="J651" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="652">
+      <c r="A652" t="n">
+        <v>651</v>
+      </c>
+      <c r="B652" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C652" t="n">
+        <v>50</v>
+      </c>
+      <c r="D652" t="n">
+        <v>34</v>
+      </c>
+      <c r="E652" t="n">
+        <v>4</v>
+      </c>
+      <c r="F652" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G652" t="n">
+        <v>999</v>
+      </c>
+      <c r="H652" s="2" t="n">
+        <v>44175.51201199627</v>
+      </c>
+      <c r="I652" t="inlineStr">
+        <is>
+          <t>[-0.2,0.6]</t>
+        </is>
+      </c>
+      <c r="J652" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="653">
+      <c r="A653" t="n">
+        <v>652</v>
+      </c>
+      <c r="B653" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C653" t="n">
+        <v>50</v>
+      </c>
+      <c r="D653" t="n">
+        <v>35</v>
+      </c>
+      <c r="E653" t="n">
+        <v>4</v>
+      </c>
+      <c r="F653" t="n">
+        <v>0</v>
+      </c>
+      <c r="G653" t="n">
+        <v>999</v>
+      </c>
+      <c r="H653" s="2" t="n">
+        <v>44175.51204881755</v>
+      </c>
+      <c r="I653" t="inlineStr">
+        <is>
+          <t>[0.6,-0.7]</t>
+        </is>
+      </c>
+      <c r="J653" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="654">
+      <c r="A654" t="n">
+        <v>653</v>
+      </c>
+      <c r="B654" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C654" t="n">
+        <v>50</v>
+      </c>
+      <c r="D654" t="n">
+        <v>36</v>
+      </c>
+      <c r="E654" t="n">
+        <v>2</v>
+      </c>
+      <c r="F654" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="G654" t="n">
+        <v>0.4999999999999932</v>
+      </c>
+      <c r="H654" s="2" t="n">
+        <v>44175.51213830852</v>
+      </c>
+      <c r="I654" t="inlineStr">
+        <is>
+          <t>[0.1,0.0]</t>
+        </is>
+      </c>
+      <c r="J654" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="655">
+      <c r="A655" t="n">
+        <v>654</v>
+      </c>
+      <c r="B655" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C655" t="n">
+        <v>50</v>
+      </c>
+      <c r="D655" t="n">
+        <v>37</v>
+      </c>
+      <c r="E655" t="n">
+        <v>4</v>
+      </c>
+      <c r="F655" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G655" t="n">
+        <v>999</v>
+      </c>
+      <c r="H655" s="2" t="n">
+        <v>44175.51222347398</v>
+      </c>
+      <c r="I655" t="inlineStr">
+        <is>
+          <t>[1.1,-1.2]</t>
+        </is>
+      </c>
+      <c r="J655" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="656">
+      <c r="A656" t="n">
+        <v>655</v>
+      </c>
+      <c r="B656" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C656" t="n">
+        <v>50</v>
+      </c>
+      <c r="D656" t="n">
+        <v>38</v>
+      </c>
+      <c r="E656" t="n">
+        <v>4</v>
+      </c>
+      <c r="F656" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G656" t="n">
+        <v>999</v>
+      </c>
+      <c r="H656" s="2" t="n">
+        <v>44175.51227394743</v>
+      </c>
+      <c r="I656" t="inlineStr">
+        <is>
+          <t>[-1.0,-1.3]</t>
+        </is>
+      </c>
+      <c r="J656" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="657">
+      <c r="A657" t="n">
+        <v>656</v>
+      </c>
+      <c r="B657" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C657" t="n">
+        <v>50</v>
+      </c>
+      <c r="D657" t="n">
+        <v>39</v>
+      </c>
+      <c r="E657" t="n">
+        <v>4</v>
+      </c>
+      <c r="F657" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G657" t="n">
+        <v>999</v>
+      </c>
+      <c r="H657" s="2" t="n">
+        <v>44175.5123250389</v>
+      </c>
+      <c r="I657" t="inlineStr">
+        <is>
+          <t>[1.1,0.1]</t>
+        </is>
+      </c>
+      <c r="J657" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="658">
+      <c r="A658" t="n">
+        <v>657</v>
+      </c>
+      <c r="B658" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C658" t="n">
+        <v>50</v>
+      </c>
+      <c r="D658" t="n">
+        <v>40</v>
+      </c>
+      <c r="E658" t="n">
+        <v>4</v>
+      </c>
+      <c r="F658" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="G658" t="n">
+        <v>999</v>
+      </c>
+      <c r="H658" s="2" t="n">
+        <v>44175.51517034376</v>
+      </c>
+      <c r="I658" t="inlineStr">
+        <is>
+          <t>[1.2,1.3]</t>
+        </is>
+      </c>
+      <c r="J658" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="659">
+      <c r="A659" t="n">
+        <v>658</v>
+      </c>
+      <c r="B659" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C659" t="n">
+        <v>50</v>
+      </c>
+      <c r="D659" t="n">
+        <v>41</v>
+      </c>
+      <c r="E659" t="n">
+        <v>4</v>
+      </c>
+      <c r="F659" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G659" t="n">
+        <v>999</v>
+      </c>
+      <c r="H659" s="2" t="n">
+        <v>44175.51634148961</v>
+      </c>
+      <c r="I659" t="inlineStr">
+        <is>
+          <t>[1.4,-1.0]</t>
+        </is>
+      </c>
+      <c r="J659" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="660">
+      <c r="A660" t="n">
+        <v>659</v>
+      </c>
+      <c r="B660" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C660" t="n">
+        <v>50</v>
+      </c>
+      <c r="D660" t="n">
+        <v>42</v>
+      </c>
+      <c r="E660" t="n">
+        <v>2</v>
+      </c>
+      <c r="F660" t="n">
+        <v>0</v>
+      </c>
+      <c r="G660" t="n">
+        <v>0.9820137900379089</v>
+      </c>
+      <c r="H660" s="2" t="n">
+        <v>44175.51637127004</v>
+      </c>
+      <c r="I660" t="inlineStr">
+        <is>
+          <t>[0.2,-1.8]</t>
+        </is>
+      </c>
+      <c r="J660" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="661">
+      <c r="A661" t="n">
+        <v>660</v>
+      </c>
+      <c r="B661" t="inlineStr">
+        <is>
+          <t>108f6780-6330-433d-ad4e-568bdcdb9bf2</t>
+        </is>
+      </c>
+      <c r="C661" t="n">
+        <v>50</v>
+      </c>
+      <c r="D661" t="n">
+        <v>43</v>
+      </c>
+      <c r="E661" t="n">
+        <v>4</v>
+      </c>
+      <c r="F661" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="G661" t="n">
+        <v>999</v>
+      </c>
+      <c r="H661" s="2" t="n">
+        <v>44175.5164009884</v>
+      </c>
+      <c r="I661" t="inlineStr">
+        <is>
+          <t>[0.3,-1.8]</t>
+        </is>
+      </c>
+      <c r="J661" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="662">
+      <c r="A662" t="n">
+        <v>661</v>
+      </c>
+      <c r="B662" t="inlineStr">
+        <is>
+          <t>8a59cfba-1362-47f7-a1af-a8b8565a93d0</t>
+        </is>
+      </c>
+      <c r="C662" t="n">
+        <v>50</v>
+      </c>
+      <c r="D662" t="n">
+        <v>1</v>
+      </c>
+      <c r="E662" t="n">
+        <v>2</v>
+      </c>
+      <c r="F662" t="n">
+        <v>0</v>
+      </c>
+      <c r="G662" t="n">
+        <v>9.440630025503438e-07</v>
+      </c>
+      <c r="H662" s="2" t="n">
+        <v>44175.54699174834</v>
+      </c>
+      <c r="I662" t="inlineStr">
+        <is>
+          <t>[0.7,0.8]</t>
+        </is>
+      </c>
+      <c r="J662" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="663">
+      <c r="A663" t="n">
+        <v>662</v>
+      </c>
+      <c r="B663" t="inlineStr">
+        <is>
+          <t>8a59cfba-1362-47f7-a1af-a8b8565a93d0</t>
+        </is>
+      </c>
+      <c r="C663" t="n">
+        <v>50</v>
+      </c>
+      <c r="D663" t="n">
+        <v>2</v>
+      </c>
+      <c r="E663" t="n">
+        <v>4</v>
+      </c>
+      <c r="F663" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="G663" t="n">
+        <v>999</v>
+      </c>
+      <c r="H663" s="2" t="n">
+        <v>44175.54703040154</v>
+      </c>
+      <c r="I663" t="inlineStr">
+        <is>
+          <t>[0.6,-0.1]</t>
+        </is>
+      </c>
+      <c r="J663" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="664">
+      <c r="A664" t="n">
+        <v>663</v>
+      </c>
+      <c r="B664" t="inlineStr">
+        <is>
+          <t>8a59cfba-1362-47f7-a1af-a8b8565a93d0</t>
+        </is>
+      </c>
+      <c r="C664" t="n">
+        <v>50</v>
+      </c>
+      <c r="D664" t="n">
+        <v>3</v>
+      </c>
+      <c r="E664" t="n">
+        <v>4</v>
+      </c>
+      <c r="F664" t="n">
+        <v>0</v>
+      </c>
+      <c r="G664" t="n">
+        <v>999</v>
+      </c>
+      <c r="H664" s="2" t="n">
+        <v>44175.54705868464</v>
+      </c>
+      <c r="I664" t="inlineStr">
+        <is>
+          <t>[-0.3,1.7]</t>
+        </is>
+      </c>
+      <c r="J664" t="n">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="665">
+      <c r="A665" t="n">
+        <v>664</v>
+      </c>
+      <c r="B665" t="inlineStr">
+        <is>
+          <t>8a59cfba-1362-47f7-a1af-a8b8565a93d0</t>
+        </is>
+      </c>
+      <c r="C665" t="n">
+        <v>50</v>
+      </c>
+      <c r="D665" t="n">
+        <v>4</v>
+      </c>
+      <c r="E665" t="n">
+        <v>2</v>
+      </c>
+      <c r="F665" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="G665" t="n">
+        <v>0.9999991684342211</v>
+      </c>
+      <c r="H665" s="2" t="n">
+        <v>44175.54709046897</v>
+      </c>
+      <c r="I665" t="inlineStr">
+        <is>
+          <t>[-1.2,0.7]</t>
+        </is>
+      </c>
+      <c r="J665" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
